--- a/data_xlsx/滚动市盈率(TTM)_沪深300.xlsx
+++ b/data_xlsx/滚动市盈率(TTM)_沪深300.xlsx
@@ -48268,7 +48268,7 @@
     </row>
     <row r="6024">
       <c r="A6024" s="1" t="n">
-        <v>44472.0</v>
+        <v>44473.0</v>
       </c>
       <c r="B6024" s="2" t="n">
         <v>13.0976</v>
@@ -48276,7 +48276,7 @@
     </row>
     <row r="6025">
       <c r="A6025" s="1" t="n">
-        <v>44473.0</v>
+        <v>44474.0</v>
       </c>
       <c r="B6025" s="2" t="n">
         <v>13.0976</v>
@@ -48284,7 +48284,7 @@
     </row>
     <row r="6026">
       <c r="A6026" s="1" t="n">
-        <v>44474.0</v>
+        <v>44475.0</v>
       </c>
       <c r="B6026" s="2" t="n">
         <v>13.0976</v>
@@ -48292,7 +48292,7 @@
     </row>
     <row r="6027">
       <c r="A6027" s="1" t="n">
-        <v>44475.0</v>
+        <v>44476.0</v>
       </c>
       <c r="B6027" s="2" t="n">
         <v>13.0976</v>
@@ -48300,23 +48300,23 @@
     </row>
     <row r="6028">
       <c r="A6028" s="1" t="n">
-        <v>44476.0</v>
+        <v>44477.0</v>
       </c>
       <c r="B6028" s="2" t="n">
-        <v>13.0976</v>
+        <v>13.2703</v>
       </c>
     </row>
     <row r="6029">
       <c r="A6029" s="1" t="n">
-        <v>44477.0</v>
+        <v>44478.0</v>
       </c>
       <c r="B6029" s="2" t="n">
-        <v>13.2703</v>
+        <v>13.2705</v>
       </c>
     </row>
     <row r="6030">
       <c r="A6030" s="1" t="n">
-        <v>44478.0</v>
+        <v>44479.0</v>
       </c>
       <c r="B6030" s="2" t="n">
         <v>13.2705</v>
@@ -48324,55 +48324,55 @@
     </row>
     <row r="6031">
       <c r="A6031" s="1" t="n">
-        <v>44479.0</v>
+        <v>44480.0</v>
       </c>
       <c r="B6031" s="2" t="n">
-        <v>13.2705</v>
+        <v>13.3021</v>
       </c>
     </row>
     <row r="6032">
       <c r="A6032" s="1" t="n">
-        <v>44480.0</v>
+        <v>44481.0</v>
       </c>
       <c r="B6032" s="2" t="n">
-        <v>13.3021</v>
+        <v>13.1691</v>
       </c>
     </row>
     <row r="6033">
       <c r="A6033" s="1" t="n">
-        <v>44481.0</v>
+        <v>44482.0</v>
       </c>
       <c r="B6033" s="2" t="n">
-        <v>13.1691</v>
+        <v>13.2614</v>
       </c>
     </row>
     <row r="6034">
       <c r="A6034" s="1" t="n">
-        <v>44482.0</v>
+        <v>44483.0</v>
       </c>
       <c r="B6034" s="2" t="n">
-        <v>13.2614</v>
+        <v>13.2054</v>
       </c>
     </row>
     <row r="6035">
       <c r="A6035" s="1" t="n">
-        <v>44483.0</v>
+        <v>44484.0</v>
       </c>
       <c r="B6035" s="2" t="n">
-        <v>13.2054</v>
+        <v>13.2583</v>
       </c>
     </row>
     <row r="6036">
       <c r="A6036" s="1" t="n">
-        <v>44484.0</v>
+        <v>44485.0</v>
       </c>
       <c r="B6036" s="2" t="n">
-        <v>13.2583</v>
+        <v>13.2445</v>
       </c>
     </row>
     <row r="6037">
       <c r="A6037" s="1" t="n">
-        <v>44485.0</v>
+        <v>44486.0</v>
       </c>
       <c r="B6037" s="2" t="n">
         <v>13.2445</v>
@@ -48380,55 +48380,55 @@
     </row>
     <row r="6038">
       <c r="A6038" s="1" t="n">
-        <v>44486.0</v>
+        <v>44487.0</v>
       </c>
       <c r="B6038" s="2" t="n">
-        <v>13.2445</v>
+        <v>13.1312</v>
       </c>
     </row>
     <row r="6039">
       <c r="A6039" s="1" t="n">
-        <v>44487.0</v>
+        <v>44488.0</v>
       </c>
       <c r="B6039" s="2" t="n">
-        <v>13.1312</v>
+        <v>13.2687</v>
       </c>
     </row>
     <row r="6040">
       <c r="A6040" s="1" t="n">
-        <v>44488.0</v>
+        <v>44489.0</v>
       </c>
       <c r="B6040" s="2" t="n">
-        <v>13.2687</v>
+        <v>13.2298</v>
       </c>
     </row>
     <row r="6041">
       <c r="A6041" s="1" t="n">
-        <v>44489.0</v>
+        <v>44490.0</v>
       </c>
       <c r="B6041" s="2" t="n">
-        <v>13.2298</v>
+        <v>13.2739</v>
       </c>
     </row>
     <row r="6042">
       <c r="A6042" s="1" t="n">
-        <v>44490.0</v>
+        <v>44491.0</v>
       </c>
       <c r="B6042" s="2" t="n">
-        <v>13.2739</v>
+        <v>13.3171</v>
       </c>
     </row>
     <row r="6043">
       <c r="A6043" s="1" t="n">
-        <v>44491.0</v>
+        <v>44492.0</v>
       </c>
       <c r="B6043" s="2" t="n">
-        <v>13.3171</v>
+        <v>13.2828</v>
       </c>
     </row>
     <row r="6044">
       <c r="A6044" s="1" t="n">
-        <v>44492.0</v>
+        <v>44493.0</v>
       </c>
       <c r="B6044" s="2" t="n">
         <v>13.2828</v>
@@ -48436,55 +48436,55 @@
     </row>
     <row r="6045">
       <c r="A6045" s="1" t="n">
-        <v>44493.0</v>
+        <v>44494.0</v>
       </c>
       <c r="B6045" s="2" t="n">
-        <v>13.2828</v>
+        <v>13.3481</v>
       </c>
     </row>
     <row r="6046">
       <c r="A6046" s="1" t="n">
-        <v>44494.0</v>
+        <v>44495.0</v>
       </c>
       <c r="B6046" s="2" t="n">
-        <v>13.3481</v>
+        <v>13.2908</v>
       </c>
     </row>
     <row r="6047">
       <c r="A6047" s="1" t="n">
-        <v>44495.0</v>
+        <v>44496.0</v>
       </c>
       <c r="B6047" s="2" t="n">
-        <v>13.2908</v>
+        <v>13.1494</v>
       </c>
     </row>
     <row r="6048">
       <c r="A6048" s="1" t="n">
-        <v>44496.0</v>
+        <v>44497.0</v>
       </c>
       <c r="B6048" s="2" t="n">
-        <v>13.1494</v>
+        <v>13.0959</v>
       </c>
     </row>
     <row r="6049">
       <c r="A6049" s="1" t="n">
-        <v>44497.0</v>
+        <v>44498.0</v>
       </c>
       <c r="B6049" s="2" t="n">
-        <v>13.0959</v>
+        <v>13.3042</v>
       </c>
     </row>
     <row r="6050">
       <c r="A6050" s="1" t="n">
-        <v>44498.0</v>
+        <v>44499.0</v>
       </c>
       <c r="B6050" s="2" t="n">
-        <v>13.3042</v>
+        <v>13.1872</v>
       </c>
     </row>
     <row r="6051">
       <c r="A6051" s="1" t="n">
-        <v>44499.0</v>
+        <v>44500.0</v>
       </c>
       <c r="B6051" s="2" t="n">
         <v>13.1872</v>
@@ -48492,47 +48492,47 @@
     </row>
     <row r="6052">
       <c r="A6052" s="1" t="n">
-        <v>44500.0</v>
+        <v>44501.0</v>
       </c>
       <c r="B6052" s="2" t="n">
-        <v>13.1872</v>
+        <v>13.143</v>
       </c>
     </row>
     <row r="6053">
       <c r="A6053" s="1" t="n">
-        <v>44501.0</v>
+        <v>44502.0</v>
       </c>
       <c r="B6053" s="2" t="n">
-        <v>13.143</v>
+        <v>13.0063</v>
       </c>
     </row>
     <row r="6054">
       <c r="A6054" s="1" t="n">
-        <v>44502.0</v>
+        <v>44503.0</v>
       </c>
       <c r="B6054" s="2" t="n">
-        <v>13.0063</v>
+        <v>12.9538</v>
       </c>
     </row>
     <row r="6055">
       <c r="A6055" s="1" t="n">
-        <v>44503.0</v>
+        <v>44504.0</v>
       </c>
       <c r="B6055" s="2" t="n">
-        <v>12.9538</v>
+        <v>13.0591</v>
       </c>
     </row>
     <row r="6056">
       <c r="A6056" s="1" t="n">
-        <v>44504.0</v>
+        <v>44505.0</v>
       </c>
       <c r="B6056" s="2" t="n">
-        <v>13.0591</v>
+        <v>12.9796</v>
       </c>
     </row>
     <row r="6057">
       <c r="A6057" s="1" t="n">
-        <v>44505.0</v>
+        <v>44506.0</v>
       </c>
       <c r="B6057" s="2" t="n">
         <v>12.9796</v>
@@ -48540,7 +48540,7 @@
     </row>
     <row r="6058">
       <c r="A6058" s="1" t="n">
-        <v>44506.0</v>
+        <v>44507.0</v>
       </c>
       <c r="B6058" s="2" t="n">
         <v>12.9796</v>
@@ -48548,47 +48548,47 @@
     </row>
     <row r="6059">
       <c r="A6059" s="1" t="n">
-        <v>44507.0</v>
+        <v>44508.0</v>
       </c>
       <c r="B6059" s="2" t="n">
-        <v>12.9796</v>
+        <v>12.9975</v>
       </c>
     </row>
     <row r="6060">
       <c r="A6060" s="1" t="n">
-        <v>44508.0</v>
+        <v>44509.0</v>
       </c>
       <c r="B6060" s="2" t="n">
-        <v>12.9975</v>
+        <v>12.9931</v>
       </c>
     </row>
     <row r="6061">
       <c r="A6061" s="1" t="n">
-        <v>44509.0</v>
+        <v>44510.0</v>
       </c>
       <c r="B6061" s="2" t="n">
-        <v>12.9931</v>
+        <v>12.9165</v>
       </c>
     </row>
     <row r="6062">
       <c r="A6062" s="1" t="n">
-        <v>44510.0</v>
+        <v>44511.0</v>
       </c>
       <c r="B6062" s="2" t="n">
-        <v>12.9165</v>
+        <v>13.1054</v>
       </c>
     </row>
     <row r="6063">
       <c r="A6063" s="1" t="n">
-        <v>44511.0</v>
+        <v>44512.0</v>
       </c>
       <c r="B6063" s="2" t="n">
-        <v>13.1054</v>
+        <v>13.0735</v>
       </c>
     </row>
     <row r="6064">
       <c r="A6064" s="1" t="n">
-        <v>44512.0</v>
+        <v>44513.0</v>
       </c>
       <c r="B6064" s="2" t="n">
         <v>13.0735</v>
@@ -48596,7 +48596,7 @@
     </row>
     <row r="6065">
       <c r="A6065" s="1" t="n">
-        <v>44513.0</v>
+        <v>44514.0</v>
       </c>
       <c r="B6065" s="2" t="n">
         <v>13.0735</v>
@@ -48604,47 +48604,47 @@
     </row>
     <row r="6066">
       <c r="A6066" s="1" t="n">
-        <v>44514.0</v>
+        <v>44515.0</v>
       </c>
       <c r="B6066" s="2" t="n">
-        <v>13.0735</v>
+        <v>13.056</v>
       </c>
     </row>
     <row r="6067">
       <c r="A6067" s="1" t="n">
-        <v>44515.0</v>
+        <v>44516.0</v>
       </c>
       <c r="B6067" s="2" t="n">
-        <v>13.056</v>
+        <v>13.0549</v>
       </c>
     </row>
     <row r="6068">
       <c r="A6068" s="1" t="n">
-        <v>44516.0</v>
+        <v>44517.0</v>
       </c>
       <c r="B6068" s="2" t="n">
-        <v>13.0549</v>
+        <v>13.064</v>
       </c>
     </row>
     <row r="6069">
       <c r="A6069" s="1" t="n">
-        <v>44517.0</v>
+        <v>44518.0</v>
       </c>
       <c r="B6069" s="2" t="n">
-        <v>13.064</v>
+        <v>12.9601</v>
       </c>
     </row>
     <row r="6070">
       <c r="A6070" s="1" t="n">
-        <v>44518.0</v>
+        <v>44519.0</v>
       </c>
       <c r="B6070" s="2" t="n">
-        <v>12.9601</v>
+        <v>13.0998</v>
       </c>
     </row>
     <row r="6071">
       <c r="A6071" s="1" t="n">
-        <v>44519.0</v>
+        <v>44520.0</v>
       </c>
       <c r="B6071" s="2" t="n">
         <v>13.0998</v>
@@ -48652,7 +48652,7 @@
     </row>
     <row r="6072">
       <c r="A6072" s="1" t="n">
-        <v>44520.0</v>
+        <v>44521.0</v>
       </c>
       <c r="B6072" s="2" t="n">
         <v>13.0998</v>
@@ -48660,47 +48660,47 @@
     </row>
     <row r="6073">
       <c r="A6073" s="1" t="n">
-        <v>44521.0</v>
+        <v>44522.0</v>
       </c>
       <c r="B6073" s="2" t="n">
-        <v>13.0998</v>
+        <v>13.1517</v>
       </c>
     </row>
     <row r="6074">
       <c r="A6074" s="1" t="n">
-        <v>44522.0</v>
+        <v>44523.0</v>
       </c>
       <c r="B6074" s="2" t="n">
-        <v>13.1517</v>
+        <v>13.1557</v>
       </c>
     </row>
     <row r="6075">
       <c r="A6075" s="1" t="n">
-        <v>44523.0</v>
+        <v>44524.0</v>
       </c>
       <c r="B6075" s="2" t="n">
-        <v>13.1557</v>
+        <v>13.1719</v>
       </c>
     </row>
     <row r="6076">
       <c r="A6076" s="1" t="n">
-        <v>44524.0</v>
+        <v>44525.0</v>
       </c>
       <c r="B6076" s="2" t="n">
-        <v>13.1719</v>
+        <v>13.1169</v>
       </c>
     </row>
     <row r="6077">
       <c r="A6077" s="1" t="n">
-        <v>44525.0</v>
+        <v>44526.0</v>
       </c>
       <c r="B6077" s="2" t="n">
-        <v>13.1169</v>
+        <v>13.0145</v>
       </c>
     </row>
     <row r="6078">
       <c r="A6078" s="1" t="n">
-        <v>44526.0</v>
+        <v>44527.0</v>
       </c>
       <c r="B6078" s="2" t="n">
         <v>13.0145</v>
@@ -48708,7 +48708,7 @@
     </row>
     <row r="6079">
       <c r="A6079" s="1" t="n">
-        <v>44527.0</v>
+        <v>44528.0</v>
       </c>
       <c r="B6079" s="2" t="n">
         <v>13.0145</v>
@@ -48716,55 +48716,55 @@
     </row>
     <row r="6080">
       <c r="A6080" s="1" t="n">
-        <v>44528.0</v>
+        <v>44529.0</v>
       </c>
       <c r="B6080" s="2" t="n">
-        <v>13.0145</v>
+        <v>12.9815</v>
       </c>
     </row>
     <row r="6081">
       <c r="A6081" s="1" t="n">
-        <v>44529.0</v>
+        <v>44530.0</v>
       </c>
       <c r="B6081" s="2" t="n">
-        <v>12.9815</v>
+        <v>12.9476</v>
       </c>
     </row>
     <row r="6082">
       <c r="A6082" s="1" t="n">
-        <v>44530.0</v>
+        <v>44531.0</v>
       </c>
       <c r="B6082" s="2" t="n">
-        <v>12.9476</v>
+        <v>12.9982</v>
       </c>
     </row>
     <row r="6083">
       <c r="A6083" s="1" t="n">
-        <v>44531.0</v>
+        <v>44532.0</v>
       </c>
       <c r="B6083" s="2" t="n">
-        <v>12.9982</v>
+        <v>13.04</v>
       </c>
     </row>
     <row r="6084">
       <c r="A6084" s="1" t="n">
-        <v>44532.0</v>
+        <v>44533.0</v>
       </c>
       <c r="B6084" s="2" t="n">
-        <v>13.04</v>
+        <v>13.1551</v>
       </c>
     </row>
     <row r="6085">
       <c r="A6085" s="1" t="n">
-        <v>44533.0</v>
+        <v>44534.0</v>
       </c>
       <c r="B6085" s="2" t="n">
-        <v>13.1551</v>
+        <v>13.1571</v>
       </c>
     </row>
     <row r="6086">
       <c r="A6086" s="1" t="n">
-        <v>44534.0</v>
+        <v>44535.0</v>
       </c>
       <c r="B6086" s="2" t="n">
         <v>13.1571</v>
@@ -48772,55 +48772,55 @@
     </row>
     <row r="6087">
       <c r="A6087" s="1" t="n">
-        <v>44535.0</v>
+        <v>44536.0</v>
       </c>
       <c r="B6087" s="2" t="n">
-        <v>13.1571</v>
+        <v>13.1382</v>
       </c>
     </row>
     <row r="6088">
       <c r="A6088" s="1" t="n">
-        <v>44536.0</v>
+        <v>44537.0</v>
       </c>
       <c r="B6088" s="2" t="n">
-        <v>13.1382</v>
+        <v>13.2119</v>
       </c>
     </row>
     <row r="6089">
       <c r="A6089" s="1" t="n">
-        <v>44537.0</v>
+        <v>44538.0</v>
       </c>
       <c r="B6089" s="2" t="n">
-        <v>13.2119</v>
+        <v>13.3764</v>
       </c>
     </row>
     <row r="6090">
       <c r="A6090" s="1" t="n">
-        <v>44538.0</v>
+        <v>44539.0</v>
       </c>
       <c r="B6090" s="2" t="n">
-        <v>13.3764</v>
+        <v>13.5772</v>
       </c>
     </row>
     <row r="6091">
       <c r="A6091" s="1" t="n">
-        <v>44539.0</v>
+        <v>44540.0</v>
       </c>
       <c r="B6091" s="2" t="n">
-        <v>13.5772</v>
+        <v>13.5138</v>
       </c>
     </row>
     <row r="6092">
       <c r="A6092" s="1" t="n">
-        <v>44540.0</v>
+        <v>44541.0</v>
       </c>
       <c r="B6092" s="2" t="n">
-        <v>13.5138</v>
+        <v>13.5193</v>
       </c>
     </row>
     <row r="6093">
       <c r="A6093" s="1" t="n">
-        <v>44541.0</v>
+        <v>44542.0</v>
       </c>
       <c r="B6093" s="2" t="n">
         <v>13.5193</v>
@@ -48828,55 +48828,55 @@
     </row>
     <row r="6094">
       <c r="A6094" s="1" t="n">
-        <v>44542.0</v>
+        <v>44543.0</v>
       </c>
       <c r="B6094" s="2" t="n">
-        <v>13.5193</v>
+        <v>14.3742</v>
       </c>
     </row>
     <row r="6095">
       <c r="A6095" s="1" t="n">
-        <v>44543.0</v>
+        <v>44544.0</v>
       </c>
       <c r="B6095" s="2" t="n">
-        <v>14.3742</v>
+        <v>14.2667</v>
       </c>
     </row>
     <row r="6096">
       <c r="A6096" s="1" t="n">
-        <v>44544.0</v>
+        <v>44545.0</v>
       </c>
       <c r="B6096" s="2" t="n">
-        <v>14.2667</v>
+        <v>14.1622</v>
       </c>
     </row>
     <row r="6097">
       <c r="A6097" s="1" t="n">
-        <v>44545.0</v>
+        <v>44546.0</v>
       </c>
       <c r="B6097" s="2" t="n">
-        <v>14.1622</v>
+        <v>14.2491</v>
       </c>
     </row>
     <row r="6098">
       <c r="A6098" s="1" t="n">
-        <v>44546.0</v>
+        <v>44547.0</v>
       </c>
       <c r="B6098" s="2" t="n">
-        <v>14.2491</v>
+        <v>14.0533</v>
       </c>
     </row>
     <row r="6099">
       <c r="A6099" s="1" t="n">
-        <v>44547.0</v>
+        <v>44548.0</v>
       </c>
       <c r="B6099" s="2" t="n">
-        <v>14.0533</v>
+        <v>14.0534</v>
       </c>
     </row>
     <row r="6100">
       <c r="A6100" s="1" t="n">
-        <v>44548.0</v>
+        <v>44549.0</v>
       </c>
       <c r="B6100" s="2" t="n">
         <v>14.0534</v>
@@ -48884,47 +48884,47 @@
     </row>
     <row r="6101">
       <c r="A6101" s="1" t="n">
-        <v>44549.0</v>
+        <v>44550.0</v>
       </c>
       <c r="B6101" s="2" t="n">
-        <v>14.0534</v>
+        <v>13.8775</v>
       </c>
     </row>
     <row r="6102">
       <c r="A6102" s="1" t="n">
-        <v>44550.0</v>
+        <v>44551.0</v>
       </c>
       <c r="B6102" s="2" t="n">
-        <v>13.8775</v>
+        <v>13.9777</v>
       </c>
     </row>
     <row r="6103">
       <c r="A6103" s="1" t="n">
-        <v>44551.0</v>
+        <v>44552.0</v>
       </c>
       <c r="B6103" s="2" t="n">
-        <v>13.9777</v>
+        <v>13.9702</v>
       </c>
     </row>
     <row r="6104">
       <c r="A6104" s="1" t="n">
-        <v>44552.0</v>
+        <v>44553.0</v>
       </c>
       <c r="B6104" s="2" t="n">
-        <v>13.9702</v>
+        <v>14.07</v>
       </c>
     </row>
     <row r="6105">
       <c r="A6105" s="1" t="n">
-        <v>44553.0</v>
+        <v>44554.0</v>
       </c>
       <c r="B6105" s="2" t="n">
-        <v>14.07</v>
+        <v>14.0017</v>
       </c>
     </row>
     <row r="6106">
       <c r="A6106" s="1" t="n">
-        <v>44554.0</v>
+        <v>44555.0</v>
       </c>
       <c r="B6106" s="2" t="n">
         <v>14.0017</v>
@@ -48932,7 +48932,7 @@
     </row>
     <row r="6107">
       <c r="A6107" s="1" t="n">
-        <v>44555.0</v>
+        <v>44556.0</v>
       </c>
       <c r="B6107" s="2" t="n">
         <v>14.0017</v>
@@ -48940,47 +48940,47 @@
     </row>
     <row r="6108">
       <c r="A6108" s="1" t="n">
-        <v>44556.0</v>
+        <v>44557.0</v>
       </c>
       <c r="B6108" s="2" t="n">
-        <v>14.0017</v>
+        <v>13.9941</v>
       </c>
     </row>
     <row r="6109">
       <c r="A6109" s="1" t="n">
-        <v>44557.0</v>
+        <v>44558.0</v>
       </c>
       <c r="B6109" s="2" t="n">
-        <v>13.9941</v>
+        <v>14.0743</v>
       </c>
     </row>
     <row r="6110">
       <c r="A6110" s="1" t="n">
-        <v>44558.0</v>
+        <v>44559.0</v>
       </c>
       <c r="B6110" s="2" t="n">
-        <v>14.0743</v>
+        <v>13.8924</v>
       </c>
     </row>
     <row r="6111">
       <c r="A6111" s="1" t="n">
-        <v>44559.0</v>
+        <v>44560.0</v>
       </c>
       <c r="B6111" s="2" t="n">
-        <v>13.8924</v>
+        <v>13.9724</v>
       </c>
     </row>
     <row r="6112">
       <c r="A6112" s="1" t="n">
-        <v>44560.0</v>
+        <v>44561.0</v>
       </c>
       <c r="B6112" s="2" t="n">
-        <v>13.9724</v>
+        <v>14.0201</v>
       </c>
     </row>
     <row r="6113">
       <c r="A6113" s="1" t="n">
-        <v>44561.0</v>
+        <v>44562.0</v>
       </c>
       <c r="B6113" s="2" t="n">
         <v>14.0201</v>
@@ -48988,7 +48988,7 @@
     </row>
     <row r="6114">
       <c r="A6114" s="1" t="n">
-        <v>44562.0</v>
+        <v>44563.0</v>
       </c>
       <c r="B6114" s="2" t="n">
         <v>14.0201</v>
@@ -48996,7 +48996,7 @@
     </row>
     <row r="6115">
       <c r="A6115" s="1" t="n">
-        <v>44563.0</v>
+        <v>44564.0</v>
       </c>
       <c r="B6115" s="2" t="n">
         <v>14.0201</v>
@@ -49004,47 +49004,47 @@
     </row>
     <row r="6116">
       <c r="A6116" s="1" t="n">
-        <v>44564.0</v>
+        <v>44565.0</v>
       </c>
       <c r="B6116" s="2" t="n">
-        <v>14.0201</v>
+        <v>13.9854</v>
       </c>
     </row>
     <row r="6117">
       <c r="A6117" s="1" t="n">
-        <v>44565.0</v>
+        <v>44566.0</v>
       </c>
       <c r="B6117" s="2" t="n">
-        <v>13.9854</v>
+        <v>13.8884</v>
       </c>
     </row>
     <row r="6118">
       <c r="A6118" s="1" t="n">
-        <v>44566.0</v>
+        <v>44567.0</v>
       </c>
       <c r="B6118" s="2" t="n">
-        <v>13.8884</v>
+        <v>13.7685</v>
       </c>
     </row>
     <row r="6119">
       <c r="A6119" s="1" t="n">
-        <v>44567.0</v>
+        <v>44568.0</v>
       </c>
       <c r="B6119" s="2" t="n">
-        <v>13.7685</v>
+        <v>13.8104</v>
       </c>
     </row>
     <row r="6120">
       <c r="A6120" s="1" t="n">
-        <v>44568.0</v>
+        <v>44569.0</v>
       </c>
       <c r="B6120" s="2" t="n">
-        <v>13.8104</v>
+        <v>13.8105</v>
       </c>
     </row>
     <row r="6121">
       <c r="A6121" s="1" t="n">
-        <v>44569.0</v>
+        <v>44570.0</v>
       </c>
       <c r="B6121" s="2" t="n">
         <v>13.8105</v>
@@ -49052,55 +49052,55 @@
     </row>
     <row r="6122">
       <c r="A6122" s="1" t="n">
-        <v>44570.0</v>
+        <v>44571.0</v>
       </c>
       <c r="B6122" s="2" t="n">
-        <v>13.8105</v>
+        <v>13.869</v>
       </c>
     </row>
     <row r="6123">
       <c r="A6123" s="1" t="n">
-        <v>44571.0</v>
+        <v>44572.0</v>
       </c>
       <c r="B6123" s="2" t="n">
-        <v>13.869</v>
+        <v>13.7353</v>
       </c>
     </row>
     <row r="6124">
       <c r="A6124" s="1" t="n">
-        <v>44572.0</v>
+        <v>44573.0</v>
       </c>
       <c r="B6124" s="2" t="n">
-        <v>13.7353</v>
+        <v>13.8413</v>
       </c>
     </row>
     <row r="6125">
       <c r="A6125" s="1" t="n">
-        <v>44573.0</v>
+        <v>44574.0</v>
       </c>
       <c r="B6125" s="2" t="n">
-        <v>13.8413</v>
+        <v>13.6552</v>
       </c>
     </row>
     <row r="6126">
       <c r="A6126" s="1" t="n">
-        <v>44574.0</v>
+        <v>44575.0</v>
       </c>
       <c r="B6126" s="2" t="n">
-        <v>13.6552</v>
+        <v>13.5069</v>
       </c>
     </row>
     <row r="6127">
       <c r="A6127" s="1" t="n">
-        <v>44575.0</v>
+        <v>44576.0</v>
       </c>
       <c r="B6127" s="2" t="n">
-        <v>13.5069</v>
+        <v>13.4864</v>
       </c>
     </row>
     <row r="6128">
       <c r="A6128" s="1" t="n">
-        <v>44576.0</v>
+        <v>44577.0</v>
       </c>
       <c r="B6128" s="2" t="n">
         <v>13.4864</v>
@@ -49108,55 +49108,55 @@
     </row>
     <row r="6129">
       <c r="A6129" s="1" t="n">
-        <v>44577.0</v>
+        <v>44578.0</v>
       </c>
       <c r="B6129" s="2" t="n">
-        <v>13.4864</v>
+        <v>13.5696</v>
       </c>
     </row>
     <row r="6130">
       <c r="A6130" s="1" t="n">
-        <v>44578.0</v>
+        <v>44579.0</v>
       </c>
       <c r="B6130" s="2" t="n">
-        <v>13.5696</v>
+        <v>13.7188</v>
       </c>
     </row>
     <row r="6131">
       <c r="A6131" s="1" t="n">
-        <v>44579.0</v>
+        <v>44580.0</v>
       </c>
       <c r="B6131" s="2" t="n">
-        <v>13.7188</v>
+        <v>13.6402</v>
       </c>
     </row>
     <row r="6132">
       <c r="A6132" s="1" t="n">
-        <v>44580.0</v>
+        <v>44581.0</v>
       </c>
       <c r="B6132" s="2" t="n">
-        <v>13.6402</v>
+        <v>13.7541</v>
       </c>
     </row>
     <row r="6133">
       <c r="A6133" s="1" t="n">
-        <v>44581.0</v>
+        <v>44582.0</v>
       </c>
       <c r="B6133" s="2" t="n">
-        <v>13.7541</v>
+        <v>13.6288</v>
       </c>
     </row>
     <row r="6134">
       <c r="A6134" s="1" t="n">
-        <v>44582.0</v>
+        <v>44583.0</v>
       </c>
       <c r="B6134" s="2" t="n">
-        <v>13.6288</v>
+        <v>13.6283</v>
       </c>
     </row>
     <row r="6135">
       <c r="A6135" s="1" t="n">
-        <v>44583.0</v>
+        <v>44584.0</v>
       </c>
       <c r="B6135" s="2" t="n">
         <v>13.6283</v>
@@ -49164,55 +49164,55 @@
     </row>
     <row r="6136">
       <c r="A6136" s="1" t="n">
-        <v>44584.0</v>
+        <v>44585.0</v>
       </c>
       <c r="B6136" s="2" t="n">
-        <v>13.6283</v>
+        <v>13.6478</v>
       </c>
     </row>
     <row r="6137">
       <c r="A6137" s="1" t="n">
-        <v>44585.0</v>
+        <v>44586.0</v>
       </c>
       <c r="B6137" s="2" t="n">
-        <v>13.6478</v>
+        <v>13.352</v>
       </c>
     </row>
     <row r="6138">
       <c r="A6138" s="1" t="n">
-        <v>44586.0</v>
+        <v>44587.0</v>
       </c>
       <c r="B6138" s="2" t="n">
-        <v>13.352</v>
+        <v>13.4492</v>
       </c>
     </row>
     <row r="6139">
       <c r="A6139" s="1" t="n">
-        <v>44587.0</v>
+        <v>44588.0</v>
       </c>
       <c r="B6139" s="2" t="n">
-        <v>13.4492</v>
+        <v>13.2265</v>
       </c>
     </row>
     <row r="6140">
       <c r="A6140" s="1" t="n">
-        <v>44588.0</v>
+        <v>44589.0</v>
       </c>
       <c r="B6140" s="2" t="n">
-        <v>13.2265</v>
+        <v>13.0623</v>
       </c>
     </row>
     <row r="6141">
       <c r="A6141" s="1" t="n">
-        <v>44589.0</v>
+        <v>44590.0</v>
       </c>
       <c r="B6141" s="2" t="n">
-        <v>13.0623</v>
+        <v>13.084</v>
       </c>
     </row>
     <row r="6142">
       <c r="A6142" s="1" t="n">
-        <v>44590.0</v>
+        <v>44591.0</v>
       </c>
       <c r="B6142" s="2" t="n">
         <v>13.084</v>
@@ -49220,7 +49220,7 @@
     </row>
     <row r="6143">
       <c r="A6143" s="1" t="n">
-        <v>44591.0</v>
+        <v>44592.0</v>
       </c>
       <c r="B6143" s="2" t="n">
         <v>13.084</v>
@@ -49228,7 +49228,7 @@
     </row>
     <row r="6144">
       <c r="A6144" s="1" t="n">
-        <v>44592.0</v>
+        <v>44593.0</v>
       </c>
       <c r="B6144" s="2" t="n">
         <v>13.084</v>
@@ -49236,7 +49236,7 @@
     </row>
     <row r="6145">
       <c r="A6145" s="1" t="n">
-        <v>44593.0</v>
+        <v>44594.0</v>
       </c>
       <c r="B6145" s="2" t="n">
         <v>13.084</v>
@@ -49244,7 +49244,7 @@
     </row>
     <row r="6146">
       <c r="A6146" s="1" t="n">
-        <v>44594.0</v>
+        <v>44595.0</v>
       </c>
       <c r="B6146" s="2" t="n">
         <v>13.084</v>
@@ -49252,7 +49252,7 @@
     </row>
     <row r="6147">
       <c r="A6147" s="1" t="n">
-        <v>44595.0</v>
+        <v>44596.0</v>
       </c>
       <c r="B6147" s="2" t="n">
         <v>13.084</v>
@@ -49260,7 +49260,7 @@
     </row>
     <row r="6148">
       <c r="A6148" s="1" t="n">
-        <v>44596.0</v>
+        <v>44597.0</v>
       </c>
       <c r="B6148" s="2" t="n">
         <v>13.084</v>
@@ -49268,7 +49268,7 @@
     </row>
     <row r="6149">
       <c r="A6149" s="1" t="n">
-        <v>44597.0</v>
+        <v>44598.0</v>
       </c>
       <c r="B6149" s="2" t="n">
         <v>13.084</v>
@@ -49276,47 +49276,47 @@
     </row>
     <row r="6150">
       <c r="A6150" s="1" t="n">
-        <v>44598.0</v>
+        <v>44599.0</v>
       </c>
       <c r="B6150" s="2" t="n">
-        <v>13.084</v>
+        <v>13.3285</v>
       </c>
     </row>
     <row r="6151">
       <c r="A6151" s="1" t="n">
-        <v>44599.0</v>
+        <v>44600.0</v>
       </c>
       <c r="B6151" s="2" t="n">
-        <v>13.3285</v>
+        <v>13.332</v>
       </c>
     </row>
     <row r="6152">
       <c r="A6152" s="1" t="n">
-        <v>44600.0</v>
+        <v>44601.0</v>
       </c>
       <c r="B6152" s="2" t="n">
-        <v>13.332</v>
+        <v>13.4321</v>
       </c>
     </row>
     <row r="6153">
       <c r="A6153" s="1" t="n">
-        <v>44601.0</v>
+        <v>44602.0</v>
       </c>
       <c r="B6153" s="2" t="n">
-        <v>13.4321</v>
+        <v>13.4264</v>
       </c>
     </row>
     <row r="6154">
       <c r="A6154" s="1" t="n">
-        <v>44602.0</v>
+        <v>44603.0</v>
       </c>
       <c r="B6154" s="2" t="n">
-        <v>13.4264</v>
+        <v>13.362</v>
       </c>
     </row>
     <row r="6155">
       <c r="A6155" s="1" t="n">
-        <v>44603.0</v>
+        <v>44604.0</v>
       </c>
       <c r="B6155" s="2" t="n">
         <v>13.362</v>
@@ -49324,7 +49324,7 @@
     </row>
     <row r="6156">
       <c r="A6156" s="1" t="n">
-        <v>44604.0</v>
+        <v>44605.0</v>
       </c>
       <c r="B6156" s="2" t="n">
         <v>13.362</v>
@@ -49332,47 +49332,47 @@
     </row>
     <row r="6157">
       <c r="A6157" s="1" t="n">
-        <v>44605.0</v>
+        <v>44606.0</v>
       </c>
       <c r="B6157" s="2" t="n">
-        <v>13.362</v>
+        <v>13.2027</v>
       </c>
     </row>
     <row r="6158">
       <c r="A6158" s="1" t="n">
-        <v>44606.0</v>
+        <v>44607.0</v>
       </c>
       <c r="B6158" s="2" t="n">
-        <v>13.2027</v>
+        <v>13.2833</v>
       </c>
     </row>
     <row r="6159">
       <c r="A6159" s="1" t="n">
-        <v>44607.0</v>
+        <v>44608.0</v>
       </c>
       <c r="B6159" s="2" t="n">
-        <v>13.2833</v>
+        <v>13.3329</v>
       </c>
     </row>
     <row r="6160">
       <c r="A6160" s="1" t="n">
-        <v>44608.0</v>
+        <v>44609.0</v>
       </c>
       <c r="B6160" s="2" t="n">
-        <v>13.3329</v>
+        <v>13.3503</v>
       </c>
     </row>
     <row r="6161">
       <c r="A6161" s="1" t="n">
-        <v>44609.0</v>
+        <v>44610.0</v>
       </c>
       <c r="B6161" s="2" t="n">
-        <v>13.3503</v>
+        <v>13.4159</v>
       </c>
     </row>
     <row r="6162">
       <c r="A6162" s="1" t="n">
-        <v>44610.0</v>
+        <v>44611.0</v>
       </c>
       <c r="B6162" s="2" t="n">
         <v>13.4159</v>
@@ -49380,7 +49380,7 @@
     </row>
     <row r="6163">
       <c r="A6163" s="1" t="n">
-        <v>44611.0</v>
+        <v>44612.0</v>
       </c>
       <c r="B6163" s="2" t="n">
         <v>13.4159</v>
@@ -49388,55 +49388,55 @@
     </row>
     <row r="6164">
       <c r="A6164" s="1" t="n">
-        <v>44612.0</v>
+        <v>44613.0</v>
       </c>
       <c r="B6164" s="2" t="n">
-        <v>13.4159</v>
+        <v>13.3736</v>
       </c>
     </row>
     <row r="6165">
       <c r="A6165" s="1" t="n">
-        <v>44613.0</v>
+        <v>44614.0</v>
       </c>
       <c r="B6165" s="2" t="n">
-        <v>13.3736</v>
+        <v>13.2235</v>
       </c>
     </row>
     <row r="6166">
       <c r="A6166" s="1" t="n">
-        <v>44614.0</v>
+        <v>44615.0</v>
       </c>
       <c r="B6166" s="2" t="n">
-        <v>13.2235</v>
+        <v>13.3112</v>
       </c>
     </row>
     <row r="6167">
       <c r="A6167" s="1" t="n">
-        <v>44615.0</v>
+        <v>44616.0</v>
       </c>
       <c r="B6167" s="2" t="n">
-        <v>13.3112</v>
+        <v>13.0846</v>
       </c>
     </row>
     <row r="6168">
       <c r="A6168" s="1" t="n">
-        <v>44616.0</v>
+        <v>44617.0</v>
       </c>
       <c r="B6168" s="2" t="n">
-        <v>13.0846</v>
+        <v>13.1677</v>
       </c>
     </row>
     <row r="6169">
       <c r="A6169" s="1" t="n">
-        <v>44617.0</v>
+        <v>44618.0</v>
       </c>
       <c r="B6169" s="2" t="n">
-        <v>13.1677</v>
+        <v>13.1711</v>
       </c>
     </row>
     <row r="6170">
       <c r="A6170" s="1" t="n">
-        <v>44618.0</v>
+        <v>44619.0</v>
       </c>
       <c r="B6170" s="2" t="n">
         <v>13.1711</v>
@@ -49444,55 +49444,55 @@
     </row>
     <row r="6171">
       <c r="A6171" s="1" t="n">
-        <v>44619.0</v>
+        <v>44620.0</v>
       </c>
       <c r="B6171" s="2" t="n">
-        <v>13.1711</v>
+        <v>13.2088</v>
       </c>
     </row>
     <row r="6172">
       <c r="A6172" s="1" t="n">
-        <v>44620.0</v>
+        <v>44621.0</v>
       </c>
       <c r="B6172" s="2" t="n">
-        <v>13.2088</v>
+        <v>13.3098</v>
       </c>
     </row>
     <row r="6173">
       <c r="A6173" s="1" t="n">
-        <v>44621.0</v>
+        <v>44622.0</v>
       </c>
       <c r="B6173" s="2" t="n">
-        <v>13.3098</v>
+        <v>13.2218</v>
       </c>
     </row>
     <row r="6174">
       <c r="A6174" s="1" t="n">
-        <v>44622.0</v>
+        <v>44623.0</v>
       </c>
       <c r="B6174" s="2" t="n">
-        <v>13.2218</v>
+        <v>13.183</v>
       </c>
     </row>
     <row r="6175">
       <c r="A6175" s="1" t="n">
-        <v>44623.0</v>
+        <v>44624.0</v>
       </c>
       <c r="B6175" s="2" t="n">
-        <v>13.183</v>
+        <v>13.0433</v>
       </c>
     </row>
     <row r="6176">
       <c r="A6176" s="1" t="n">
-        <v>44624.0</v>
+        <v>44625.0</v>
       </c>
       <c r="B6176" s="2" t="n">
-        <v>13.0433</v>
+        <v>13.0448</v>
       </c>
     </row>
     <row r="6177">
       <c r="A6177" s="1" t="n">
-        <v>44625.0</v>
+        <v>44626.0</v>
       </c>
       <c r="B6177" s="2" t="n">
         <v>13.0448</v>
@@ -49500,55 +49500,55 @@
     </row>
     <row r="6178">
       <c r="A6178" s="1" t="n">
-        <v>44626.0</v>
+        <v>44627.0</v>
       </c>
       <c r="B6178" s="2" t="n">
-        <v>13.0448</v>
+        <v>12.6846</v>
       </c>
     </row>
     <row r="6179">
       <c r="A6179" s="1" t="n">
-        <v>44627.0</v>
+        <v>44628.0</v>
       </c>
       <c r="B6179" s="2" t="n">
-        <v>12.6846</v>
+        <v>12.4355</v>
       </c>
     </row>
     <row r="6180">
       <c r="A6180" s="1" t="n">
-        <v>44628.0</v>
+        <v>44629.0</v>
       </c>
       <c r="B6180" s="2" t="n">
-        <v>12.4355</v>
+        <v>12.3109</v>
       </c>
     </row>
     <row r="6181">
       <c r="A6181" s="1" t="n">
-        <v>44629.0</v>
+        <v>44630.0</v>
       </c>
       <c r="B6181" s="2" t="n">
-        <v>12.3109</v>
+        <v>12.4487</v>
       </c>
     </row>
     <row r="6182">
       <c r="A6182" s="1" t="n">
-        <v>44630.0</v>
+        <v>44631.0</v>
       </c>
       <c r="B6182" s="2" t="n">
-        <v>12.4487</v>
+        <v>12.4362</v>
       </c>
     </row>
     <row r="6183">
       <c r="A6183" s="1" t="n">
-        <v>44631.0</v>
+        <v>44632.0</v>
       </c>
       <c r="B6183" s="2" t="n">
-        <v>12.4362</v>
+        <v>12.4308</v>
       </c>
     </row>
     <row r="6184">
       <c r="A6184" s="1" t="n">
-        <v>44632.0</v>
+        <v>44633.0</v>
       </c>
       <c r="B6184" s="2" t="n">
         <v>12.4308</v>
@@ -49556,55 +49556,55 @@
     </row>
     <row r="6185">
       <c r="A6185" s="1" t="n">
-        <v>44633.0</v>
+        <v>44634.0</v>
       </c>
       <c r="B6185" s="2" t="n">
-        <v>12.4308</v>
+        <v>12.0787</v>
       </c>
     </row>
     <row r="6186">
       <c r="A6186" s="1" t="n">
-        <v>44634.0</v>
+        <v>44635.0</v>
       </c>
       <c r="B6186" s="2" t="n">
-        <v>12.0787</v>
+        <v>11.5324</v>
       </c>
     </row>
     <row r="6187">
       <c r="A6187" s="1" t="n">
-        <v>44635.0</v>
+        <v>44636.0</v>
       </c>
       <c r="B6187" s="2" t="n">
-        <v>11.5324</v>
+        <v>11.9626</v>
       </c>
     </row>
     <row r="6188">
       <c r="A6188" s="1" t="n">
-        <v>44636.0</v>
+        <v>44637.0</v>
       </c>
       <c r="B6188" s="2" t="n">
-        <v>11.9626</v>
+        <v>12.1544</v>
       </c>
     </row>
     <row r="6189">
       <c r="A6189" s="1" t="n">
-        <v>44637.0</v>
+        <v>44638.0</v>
       </c>
       <c r="B6189" s="2" t="n">
-        <v>12.1544</v>
+        <v>12.3193</v>
       </c>
     </row>
     <row r="6190">
       <c r="A6190" s="1" t="n">
-        <v>44638.0</v>
+        <v>44639.0</v>
       </c>
       <c r="B6190" s="2" t="n">
-        <v>12.3193</v>
+        <v>12.3234</v>
       </c>
     </row>
     <row r="6191">
       <c r="A6191" s="1" t="n">
-        <v>44639.0</v>
+        <v>44640.0</v>
       </c>
       <c r="B6191" s="2" t="n">
         <v>12.3234</v>
@@ -49612,55 +49612,55 @@
     </row>
     <row r="6192">
       <c r="A6192" s="1" t="n">
-        <v>44640.0</v>
+        <v>44641.0</v>
       </c>
       <c r="B6192" s="2" t="n">
-        <v>12.3234</v>
+        <v>12.2948</v>
       </c>
     </row>
     <row r="6193">
       <c r="A6193" s="1" t="n">
-        <v>44641.0</v>
+        <v>44642.0</v>
       </c>
       <c r="B6193" s="2" t="n">
-        <v>12.2948</v>
+        <v>12.3143</v>
       </c>
     </row>
     <row r="6194">
       <c r="A6194" s="1" t="n">
-        <v>44642.0</v>
+        <v>44643.0</v>
       </c>
       <c r="B6194" s="2" t="n">
-        <v>12.3143</v>
+        <v>12.3824</v>
       </c>
     </row>
     <row r="6195">
       <c r="A6195" s="1" t="n">
-        <v>44643.0</v>
+        <v>44644.0</v>
       </c>
       <c r="B6195" s="2" t="n">
-        <v>12.3824</v>
+        <v>12.3264</v>
       </c>
     </row>
     <row r="6196">
       <c r="A6196" s="1" t="n">
-        <v>44644.0</v>
+        <v>44645.0</v>
       </c>
       <c r="B6196" s="2" t="n">
-        <v>12.3264</v>
+        <v>12.1495</v>
       </c>
     </row>
     <row r="6197">
       <c r="A6197" s="1" t="n">
-        <v>44645.0</v>
+        <v>44646.0</v>
       </c>
       <c r="B6197" s="2" t="n">
-        <v>12.1495</v>
+        <v>12.1488</v>
       </c>
     </row>
     <row r="6198">
       <c r="A6198" s="1" t="n">
-        <v>44646.0</v>
+        <v>44647.0</v>
       </c>
       <c r="B6198" s="2" t="n">
         <v>12.1488</v>
@@ -49668,55 +49668,55 @@
     </row>
     <row r="6199">
       <c r="A6199" s="1" t="n">
-        <v>44647.0</v>
+        <v>44648.0</v>
       </c>
       <c r="B6199" s="2" t="n">
-        <v>12.1488</v>
+        <v>12.1241</v>
       </c>
     </row>
     <row r="6200">
       <c r="A6200" s="1" t="n">
-        <v>44648.0</v>
+        <v>44649.0</v>
       </c>
       <c r="B6200" s="2" t="n">
-        <v>12.1241</v>
+        <v>12.1015</v>
       </c>
     </row>
     <row r="6201">
       <c r="A6201" s="1" t="n">
-        <v>44649.0</v>
+        <v>44650.0</v>
       </c>
       <c r="B6201" s="2" t="n">
-        <v>12.1015</v>
+        <v>12.3408</v>
       </c>
     </row>
     <row r="6202">
       <c r="A6202" s="1" t="n">
-        <v>44650.0</v>
+        <v>44651.0</v>
       </c>
       <c r="B6202" s="2" t="n">
-        <v>12.3408</v>
+        <v>12.3453</v>
       </c>
     </row>
     <row r="6203">
       <c r="A6203" s="1" t="n">
-        <v>44651.0</v>
+        <v>44652.0</v>
       </c>
       <c r="B6203" s="2" t="n">
-        <v>12.3453</v>
+        <v>12.468</v>
       </c>
     </row>
     <row r="6204">
       <c r="A6204" s="1" t="n">
-        <v>44652.0</v>
+        <v>44653.0</v>
       </c>
       <c r="B6204" s="2" t="n">
-        <v>12.468</v>
+        <v>12.4666</v>
       </c>
     </row>
     <row r="6205">
       <c r="A6205" s="1" t="n">
-        <v>44653.0</v>
+        <v>44654.0</v>
       </c>
       <c r="B6205" s="2" t="n">
         <v>12.4666</v>
@@ -49724,7 +49724,7 @@
     </row>
     <row r="6206">
       <c r="A6206" s="1" t="n">
-        <v>44654.0</v>
+        <v>44655.0</v>
       </c>
       <c r="B6206" s="2" t="n">
         <v>12.4666</v>
@@ -49732,7 +49732,7 @@
     </row>
     <row r="6207">
       <c r="A6207" s="1" t="n">
-        <v>44655.0</v>
+        <v>44656.0</v>
       </c>
       <c r="B6207" s="2" t="n">
         <v>12.4666</v>
@@ -49740,39 +49740,39 @@
     </row>
     <row r="6208">
       <c r="A6208" s="1" t="n">
-        <v>44656.0</v>
+        <v>44657.0</v>
       </c>
       <c r="B6208" s="2" t="n">
-        <v>12.4666</v>
+        <v>12.4618</v>
       </c>
     </row>
     <row r="6209">
       <c r="A6209" s="1" t="n">
-        <v>44657.0</v>
+        <v>44658.0</v>
       </c>
       <c r="B6209" s="2" t="n">
-        <v>12.4618</v>
+        <v>12.3152</v>
       </c>
     </row>
     <row r="6210">
       <c r="A6210" s="1" t="n">
-        <v>44658.0</v>
+        <v>44659.0</v>
       </c>
       <c r="B6210" s="2" t="n">
-        <v>12.3152</v>
+        <v>12.3896</v>
       </c>
     </row>
     <row r="6211">
       <c r="A6211" s="1" t="n">
-        <v>44659.0</v>
+        <v>44660.0</v>
       </c>
       <c r="B6211" s="2" t="n">
-        <v>12.3896</v>
+        <v>12.3905</v>
       </c>
     </row>
     <row r="6212">
       <c r="A6212" s="1" t="n">
-        <v>44660.0</v>
+        <v>44661.0</v>
       </c>
       <c r="B6212" s="2" t="n">
         <v>12.3905</v>
@@ -49780,55 +49780,55 @@
     </row>
     <row r="6213">
       <c r="A6213" s="1" t="n">
-        <v>44661.0</v>
+        <v>44662.0</v>
       </c>
       <c r="B6213" s="2" t="n">
-        <v>12.3905</v>
+        <v>12.0702</v>
       </c>
     </row>
     <row r="6214">
       <c r="A6214" s="1" t="n">
-        <v>44662.0</v>
+        <v>44663.0</v>
       </c>
       <c r="B6214" s="2" t="n">
-        <v>12.0702</v>
+        <v>12.2674</v>
       </c>
     </row>
     <row r="6215">
       <c r="A6215" s="1" t="n">
-        <v>44663.0</v>
+        <v>44664.0</v>
       </c>
       <c r="B6215" s="2" t="n">
-        <v>12.2674</v>
+        <v>12.1779</v>
       </c>
     </row>
     <row r="6216">
       <c r="A6216" s="1" t="n">
-        <v>44664.0</v>
+        <v>44665.0</v>
       </c>
       <c r="B6216" s="2" t="n">
-        <v>12.1779</v>
+        <v>12.3132</v>
       </c>
     </row>
     <row r="6217">
       <c r="A6217" s="1" t="n">
-        <v>44665.0</v>
+        <v>44666.0</v>
       </c>
       <c r="B6217" s="2" t="n">
-        <v>12.3132</v>
+        <v>12.2906</v>
       </c>
     </row>
     <row r="6218">
       <c r="A6218" s="1" t="n">
-        <v>44666.0</v>
+        <v>44667.0</v>
       </c>
       <c r="B6218" s="2" t="n">
-        <v>12.2906</v>
+        <v>12.2854</v>
       </c>
     </row>
     <row r="6219">
       <c r="A6219" s="1" t="n">
-        <v>44667.0</v>
+        <v>44668.0</v>
       </c>
       <c r="B6219" s="2" t="n">
         <v>12.2854</v>
@@ -49836,55 +49836,55 @@
     </row>
     <row r="6220">
       <c r="A6220" s="1" t="n">
-        <v>44668.0</v>
+        <v>44669.0</v>
       </c>
       <c r="B6220" s="2" t="n">
-        <v>12.2854</v>
+        <v>12.1932</v>
       </c>
     </row>
     <row r="6221">
       <c r="A6221" s="1" t="n">
-        <v>44669.0</v>
+        <v>44670.0</v>
       </c>
       <c r="B6221" s="2" t="n">
-        <v>12.1932</v>
+        <v>12.1441</v>
       </c>
     </row>
     <row r="6222">
       <c r="A6222" s="1" t="n">
-        <v>44670.0</v>
+        <v>44671.0</v>
       </c>
       <c r="B6222" s="2" t="n">
-        <v>12.1441</v>
+        <v>11.9797</v>
       </c>
     </row>
     <row r="6223">
       <c r="A6223" s="1" t="n">
-        <v>44671.0</v>
+        <v>44672.0</v>
       </c>
       <c r="B6223" s="2" t="n">
-        <v>11.9797</v>
+        <v>11.7845</v>
       </c>
     </row>
     <row r="6224">
       <c r="A6224" s="1" t="n">
-        <v>44672.0</v>
+        <v>44673.0</v>
       </c>
       <c r="B6224" s="2" t="n">
-        <v>11.7845</v>
+        <v>11.8467</v>
       </c>
     </row>
     <row r="6225">
       <c r="A6225" s="1" t="n">
-        <v>44673.0</v>
+        <v>44674.0</v>
       </c>
       <c r="B6225" s="2" t="n">
-        <v>11.8467</v>
+        <v>11.846</v>
       </c>
     </row>
     <row r="6226">
       <c r="A6226" s="1" t="n">
-        <v>44674.0</v>
+        <v>44675.0</v>
       </c>
       <c r="B6226" s="2" t="n">
         <v>11.846</v>
@@ -49892,55 +49892,55 @@
     </row>
     <row r="6227">
       <c r="A6227" s="1" t="n">
-        <v>44675.0</v>
+        <v>44676.0</v>
       </c>
       <c r="B6227" s="2" t="n">
-        <v>11.846</v>
+        <v>11.3298</v>
       </c>
     </row>
     <row r="6228">
       <c r="A6228" s="1" t="n">
-        <v>44676.0</v>
+        <v>44677.0</v>
       </c>
       <c r="B6228" s="2" t="n">
-        <v>11.3298</v>
+        <v>11.246</v>
       </c>
     </row>
     <row r="6229">
       <c r="A6229" s="1" t="n">
-        <v>44677.0</v>
+        <v>44678.0</v>
       </c>
       <c r="B6229" s="2" t="n">
-        <v>11.246</v>
+        <v>11.4881</v>
       </c>
     </row>
     <row r="6230">
       <c r="A6230" s="1" t="n">
-        <v>44678.0</v>
+        <v>44679.0</v>
       </c>
       <c r="B6230" s="2" t="n">
-        <v>11.4881</v>
+        <v>11.5409</v>
       </c>
     </row>
     <row r="6231">
       <c r="A6231" s="1" t="n">
-        <v>44679.0</v>
+        <v>44680.0</v>
       </c>
       <c r="B6231" s="2" t="n">
-        <v>11.5409</v>
+        <v>11.8514</v>
       </c>
     </row>
     <row r="6232">
       <c r="A6232" s="1" t="n">
-        <v>44680.0</v>
+        <v>44681.0</v>
       </c>
       <c r="B6232" s="2" t="n">
-        <v>11.8514</v>
+        <v>11.9829</v>
       </c>
     </row>
     <row r="6233">
       <c r="A6233" s="1" t="n">
-        <v>44681.0</v>
+        <v>44682.0</v>
       </c>
       <c r="B6233" s="2" t="n">
         <v>11.9829</v>
@@ -49948,7 +49948,7 @@
     </row>
     <row r="6234">
       <c r="A6234" s="1" t="n">
-        <v>44682.0</v>
+        <v>44683.0</v>
       </c>
       <c r="B6234" s="2" t="n">
         <v>11.9829</v>
@@ -49956,7 +49956,7 @@
     </row>
     <row r="6235">
       <c r="A6235" s="1" t="n">
-        <v>44683.0</v>
+        <v>44684.0</v>
       </c>
       <c r="B6235" s="2" t="n">
         <v>11.9829</v>
@@ -49964,7 +49964,7 @@
     </row>
     <row r="6236">
       <c r="A6236" s="1" t="n">
-        <v>44684.0</v>
+        <v>44685.0</v>
       </c>
       <c r="B6236" s="2" t="n">
         <v>11.9829</v>
@@ -49972,23 +49972,23 @@
     </row>
     <row r="6237">
       <c r="A6237" s="1" t="n">
-        <v>44685.0</v>
+        <v>44686.0</v>
       </c>
       <c r="B6237" s="2" t="n">
-        <v>11.9829</v>
+        <v>11.974</v>
       </c>
     </row>
     <row r="6238">
       <c r="A6238" s="1" t="n">
-        <v>44686.0</v>
+        <v>44687.0</v>
       </c>
       <c r="B6238" s="2" t="n">
-        <v>11.974</v>
+        <v>11.6974</v>
       </c>
     </row>
     <row r="6239">
       <c r="A6239" s="1" t="n">
-        <v>44687.0</v>
+        <v>44688.0</v>
       </c>
       <c r="B6239" s="2" t="n">
         <v>11.6974</v>
@@ -49996,7 +49996,7 @@
     </row>
     <row r="6240">
       <c r="A6240" s="1" t="n">
-        <v>44688.0</v>
+        <v>44689.0</v>
       </c>
       <c r="B6240" s="2" t="n">
         <v>11.6974</v>
@@ -50004,47 +50004,47 @@
     </row>
     <row r="6241">
       <c r="A6241" s="1" t="n">
-        <v>44689.0</v>
+        <v>44690.0</v>
       </c>
       <c r="B6241" s="2" t="n">
-        <v>11.6974</v>
+        <v>11.626</v>
       </c>
     </row>
     <row r="6242">
       <c r="A6242" s="1" t="n">
-        <v>44690.0</v>
+        <v>44691.0</v>
       </c>
       <c r="B6242" s="2" t="n">
-        <v>11.626</v>
+        <v>11.7174</v>
       </c>
     </row>
     <row r="6243">
       <c r="A6243" s="1" t="n">
-        <v>44691.0</v>
+        <v>44692.0</v>
       </c>
       <c r="B6243" s="2" t="n">
-        <v>11.7174</v>
+        <v>11.8422</v>
       </c>
     </row>
     <row r="6244">
       <c r="A6244" s="1" t="n">
-        <v>44692.0</v>
+        <v>44693.0</v>
       </c>
       <c r="B6244" s="2" t="n">
-        <v>11.8422</v>
+        <v>11.8011</v>
       </c>
     </row>
     <row r="6245">
       <c r="A6245" s="1" t="n">
-        <v>44693.0</v>
+        <v>44694.0</v>
       </c>
       <c r="B6245" s="2" t="n">
-        <v>11.8011</v>
+        <v>11.9001</v>
       </c>
     </row>
     <row r="6246">
       <c r="A6246" s="1" t="n">
-        <v>44694.0</v>
+        <v>44695.0</v>
       </c>
       <c r="B6246" s="2" t="n">
         <v>11.9001</v>
@@ -50052,7 +50052,7 @@
     </row>
     <row r="6247">
       <c r="A6247" s="1" t="n">
-        <v>44695.0</v>
+        <v>44696.0</v>
       </c>
       <c r="B6247" s="2" t="n">
         <v>11.9001</v>
@@ -50060,47 +50060,47 @@
     </row>
     <row r="6248">
       <c r="A6248" s="1" t="n">
-        <v>44696.0</v>
+        <v>44697.0</v>
       </c>
       <c r="B6248" s="2" t="n">
-        <v>11.9001</v>
+        <v>11.8236</v>
       </c>
     </row>
     <row r="6249">
       <c r="A6249" s="1" t="n">
-        <v>44697.0</v>
+        <v>44698.0</v>
       </c>
       <c r="B6249" s="2" t="n">
-        <v>11.8236</v>
+        <v>11.9409</v>
       </c>
     </row>
     <row r="6250">
       <c r="A6250" s="1" t="n">
-        <v>44698.0</v>
+        <v>44699.0</v>
       </c>
       <c r="B6250" s="2" t="n">
-        <v>11.9409</v>
+        <v>11.9002</v>
       </c>
     </row>
     <row r="6251">
       <c r="A6251" s="1" t="n">
-        <v>44699.0</v>
+        <v>44700.0</v>
       </c>
       <c r="B6251" s="2" t="n">
-        <v>11.9002</v>
+        <v>11.9126</v>
       </c>
     </row>
     <row r="6252">
       <c r="A6252" s="1" t="n">
-        <v>44700.0</v>
+        <v>44701.0</v>
       </c>
       <c r="B6252" s="2" t="n">
-        <v>11.9126</v>
+        <v>12.1189</v>
       </c>
     </row>
     <row r="6253">
       <c r="A6253" s="1" t="n">
-        <v>44701.0</v>
+        <v>44702.0</v>
       </c>
       <c r="B6253" s="2" t="n">
         <v>12.1189</v>
@@ -50108,7 +50108,7 @@
     </row>
     <row r="6254">
       <c r="A6254" s="1" t="n">
-        <v>44702.0</v>
+        <v>44703.0</v>
       </c>
       <c r="B6254" s="2" t="n">
         <v>12.1189</v>
@@ -50116,47 +50116,47 @@
     </row>
     <row r="6255">
       <c r="A6255" s="1" t="n">
-        <v>44703.0</v>
+        <v>44704.0</v>
       </c>
       <c r="B6255" s="2" t="n">
-        <v>12.1189</v>
+        <v>12.065</v>
       </c>
     </row>
     <row r="6256">
       <c r="A6256" s="1" t="n">
-        <v>44704.0</v>
+        <v>44705.0</v>
       </c>
       <c r="B6256" s="2" t="n">
-        <v>12.065</v>
+        <v>11.835</v>
       </c>
     </row>
     <row r="6257">
       <c r="A6257" s="1" t="n">
-        <v>44705.0</v>
+        <v>44706.0</v>
       </c>
       <c r="B6257" s="2" t="n">
-        <v>11.835</v>
+        <v>11.9193</v>
       </c>
     </row>
     <row r="6258">
       <c r="A6258" s="1" t="n">
-        <v>44706.0</v>
+        <v>44707.0</v>
       </c>
       <c r="B6258" s="2" t="n">
-        <v>11.9193</v>
+        <v>11.9526</v>
       </c>
     </row>
     <row r="6259">
       <c r="A6259" s="1" t="n">
-        <v>44707.0</v>
+        <v>44708.0</v>
       </c>
       <c r="B6259" s="2" t="n">
-        <v>11.9526</v>
+        <v>11.9844</v>
       </c>
     </row>
     <row r="6260">
       <c r="A6260" s="1" t="n">
-        <v>44708.0</v>
+        <v>44709.0</v>
       </c>
       <c r="B6260" s="2" t="n">
         <v>11.9844</v>
@@ -50164,7 +50164,7 @@
     </row>
     <row r="6261">
       <c r="A6261" s="1" t="n">
-        <v>44709.0</v>
+        <v>44710.0</v>
       </c>
       <c r="B6261" s="2" t="n">
         <v>11.9844</v>
@@ -50172,47 +50172,47 @@
     </row>
     <row r="6262">
       <c r="A6262" s="1" t="n">
-        <v>44710.0</v>
+        <v>44711.0</v>
       </c>
       <c r="B6262" s="2" t="n">
-        <v>11.9844</v>
+        <v>12.0455</v>
       </c>
     </row>
     <row r="6263">
       <c r="A6263" s="1" t="n">
-        <v>44711.0</v>
+        <v>44712.0</v>
       </c>
       <c r="B6263" s="2" t="n">
-        <v>12.0455</v>
+        <v>12.2007</v>
       </c>
     </row>
     <row r="6264">
       <c r="A6264" s="1" t="n">
-        <v>44712.0</v>
+        <v>44713.0</v>
       </c>
       <c r="B6264" s="2" t="n">
-        <v>12.2007</v>
+        <v>12.1713</v>
       </c>
     </row>
     <row r="6265">
       <c r="A6265" s="1" t="n">
-        <v>44713.0</v>
+        <v>44714.0</v>
       </c>
       <c r="B6265" s="2" t="n">
-        <v>12.1713</v>
+        <v>12.1821</v>
       </c>
     </row>
     <row r="6266">
       <c r="A6266" s="1" t="n">
-        <v>44714.0</v>
+        <v>44715.0</v>
       </c>
       <c r="B6266" s="2" t="n">
-        <v>12.1821</v>
+        <v>12.1822</v>
       </c>
     </row>
     <row r="6267">
       <c r="A6267" s="1" t="n">
-        <v>44715.0</v>
+        <v>44716.0</v>
       </c>
       <c r="B6267" s="2" t="n">
         <v>12.1822</v>
@@ -50220,7 +50220,7 @@
     </row>
     <row r="6268">
       <c r="A6268" s="1" t="n">
-        <v>44716.0</v>
+        <v>44717.0</v>
       </c>
       <c r="B6268" s="2" t="n">
         <v>12.1822</v>
@@ -50228,47 +50228,47 @@
     </row>
     <row r="6269">
       <c r="A6269" s="1" t="n">
-        <v>44717.0</v>
+        <v>44718.0</v>
       </c>
       <c r="B6269" s="2" t="n">
-        <v>12.1822</v>
+        <v>12.3519</v>
       </c>
     </row>
     <row r="6270">
       <c r="A6270" s="1" t="n">
-        <v>44718.0</v>
+        <v>44719.0</v>
       </c>
       <c r="B6270" s="2" t="n">
-        <v>12.3519</v>
+        <v>12.3862</v>
       </c>
     </row>
     <row r="6271">
       <c r="A6271" s="1" t="n">
-        <v>44719.0</v>
+        <v>44720.0</v>
       </c>
       <c r="B6271" s="2" t="n">
-        <v>12.3862</v>
+        <v>12.5059</v>
       </c>
     </row>
     <row r="6272">
       <c r="A6272" s="1" t="n">
-        <v>44720.0</v>
+        <v>44721.0</v>
       </c>
       <c r="B6272" s="2" t="n">
-        <v>12.5059</v>
+        <v>12.4133</v>
       </c>
     </row>
     <row r="6273">
       <c r="A6273" s="1" t="n">
-        <v>44721.0</v>
+        <v>44722.0</v>
       </c>
       <c r="B6273" s="2" t="n">
-        <v>12.4133</v>
+        <v>12.5869</v>
       </c>
     </row>
     <row r="6274">
       <c r="A6274" s="1" t="n">
-        <v>44722.0</v>
+        <v>44723.0</v>
       </c>
       <c r="B6274" s="2" t="n">
         <v>12.5869</v>
@@ -50276,7 +50276,7 @@
     </row>
     <row r="6275">
       <c r="A6275" s="1" t="n">
-        <v>44723.0</v>
+        <v>44724.0</v>
       </c>
       <c r="B6275" s="2" t="n">
         <v>12.5869</v>
@@ -50284,47 +50284,47 @@
     </row>
     <row r="6276">
       <c r="A6276" s="1" t="n">
-        <v>44724.0</v>
+        <v>44725.0</v>
       </c>
       <c r="B6276" s="2" t="n">
-        <v>12.5869</v>
+        <v>12.3201</v>
       </c>
     </row>
     <row r="6277">
       <c r="A6277" s="1" t="n">
-        <v>44725.0</v>
+        <v>44726.0</v>
       </c>
       <c r="B6277" s="2" t="n">
-        <v>12.3201</v>
+        <v>12.4485</v>
       </c>
     </row>
     <row r="6278">
       <c r="A6278" s="1" t="n">
-        <v>44726.0</v>
+        <v>44727.0</v>
       </c>
       <c r="B6278" s="2" t="n">
-        <v>12.4485</v>
+        <v>12.5848</v>
       </c>
     </row>
     <row r="6279">
       <c r="A6279" s="1" t="n">
-        <v>44727.0</v>
+        <v>44728.0</v>
       </c>
       <c r="B6279" s="2" t="n">
-        <v>12.5848</v>
+        <v>12.4772</v>
       </c>
     </row>
     <row r="6280">
       <c r="A6280" s="1" t="n">
-        <v>44728.0</v>
+        <v>44729.0</v>
       </c>
       <c r="B6280" s="2" t="n">
-        <v>12.4772</v>
+        <v>12.6117</v>
       </c>
     </row>
     <row r="6281">
       <c r="A6281" s="1" t="n">
-        <v>44729.0</v>
+        <v>44730.0</v>
       </c>
       <c r="B6281" s="2" t="n">
         <v>12.6117</v>
@@ -50332,7 +50332,7 @@
     </row>
     <row r="6282">
       <c r="A6282" s="1" t="n">
-        <v>44730.0</v>
+        <v>44731.0</v>
       </c>
       <c r="B6282" s="2" t="n">
         <v>12.6117</v>
@@ -50340,47 +50340,47 @@
     </row>
     <row r="6283">
       <c r="A6283" s="1" t="n">
-        <v>44731.0</v>
+        <v>44732.0</v>
       </c>
       <c r="B6283" s="2" t="n">
-        <v>12.6117</v>
+        <v>12.6297</v>
       </c>
     </row>
     <row r="6284">
       <c r="A6284" s="1" t="n">
-        <v>44732.0</v>
+        <v>44733.0</v>
       </c>
       <c r="B6284" s="2" t="n">
-        <v>12.6297</v>
+        <v>12.6365</v>
       </c>
     </row>
     <row r="6285">
       <c r="A6285" s="1" t="n">
-        <v>44733.0</v>
+        <v>44734.0</v>
       </c>
       <c r="B6285" s="2" t="n">
-        <v>12.6365</v>
+        <v>12.4806</v>
       </c>
     </row>
     <row r="6286">
       <c r="A6286" s="1" t="n">
-        <v>44734.0</v>
+        <v>44735.0</v>
       </c>
       <c r="B6286" s="2" t="n">
-        <v>12.4806</v>
+        <v>12.676</v>
       </c>
     </row>
     <row r="6287">
       <c r="A6287" s="1" t="n">
-        <v>44735.0</v>
+        <v>44736.0</v>
       </c>
       <c r="B6287" s="2" t="n">
-        <v>12.676</v>
+        <v>12.7796</v>
       </c>
     </row>
     <row r="6288">
       <c r="A6288" s="1" t="n">
-        <v>44736.0</v>
+        <v>44737.0</v>
       </c>
       <c r="B6288" s="2" t="n">
         <v>12.7796</v>
@@ -50388,7 +50388,7 @@
     </row>
     <row r="6289">
       <c r="A6289" s="1" t="n">
-        <v>44737.0</v>
+        <v>44738.0</v>
       </c>
       <c r="B6289" s="2" t="n">
         <v>12.7796</v>
@@ -50396,55 +50396,55 @@
     </row>
     <row r="6290">
       <c r="A6290" s="1" t="n">
-        <v>44738.0</v>
+        <v>44739.0</v>
       </c>
       <c r="B6290" s="2" t="n">
-        <v>12.7796</v>
+        <v>12.904</v>
       </c>
     </row>
     <row r="6291">
       <c r="A6291" s="1" t="n">
-        <v>44739.0</v>
+        <v>44740.0</v>
       </c>
       <c r="B6291" s="2" t="n">
-        <v>12.904</v>
+        <v>13.0032</v>
       </c>
     </row>
     <row r="6292">
       <c r="A6292" s="1" t="n">
-        <v>44740.0</v>
+        <v>44741.0</v>
       </c>
       <c r="B6292" s="2" t="n">
-        <v>13.0032</v>
+        <v>12.8461</v>
       </c>
     </row>
     <row r="6293">
       <c r="A6293" s="1" t="n">
-        <v>44741.0</v>
+        <v>44742.0</v>
       </c>
       <c r="B6293" s="2" t="n">
-        <v>12.8461</v>
+        <v>12.9856</v>
       </c>
     </row>
     <row r="6294">
       <c r="A6294" s="1" t="n">
-        <v>44742.0</v>
+        <v>44743.0</v>
       </c>
       <c r="B6294" s="2" t="n">
-        <v>12.9856</v>
+        <v>12.9369</v>
       </c>
     </row>
     <row r="6295">
       <c r="A6295" s="1" t="n">
-        <v>44743.0</v>
+        <v>44744.0</v>
       </c>
       <c r="B6295" s="2" t="n">
-        <v>12.9369</v>
+        <v>12.937</v>
       </c>
     </row>
     <row r="6296">
       <c r="A6296" s="1" t="n">
-        <v>44744.0</v>
+        <v>44745.0</v>
       </c>
       <c r="B6296" s="2" t="n">
         <v>12.937</v>
@@ -50452,55 +50452,55 @@
     </row>
     <row r="6297">
       <c r="A6297" s="1" t="n">
-        <v>44745.0</v>
+        <v>44746.0</v>
       </c>
       <c r="B6297" s="2" t="n">
-        <v>12.937</v>
+        <v>13.0122</v>
       </c>
     </row>
     <row r="6298">
       <c r="A6298" s="1" t="n">
-        <v>44746.0</v>
+        <v>44747.0</v>
       </c>
       <c r="B6298" s="2" t="n">
-        <v>13.0122</v>
+        <v>13.0008</v>
       </c>
     </row>
     <row r="6299">
       <c r="A6299" s="1" t="n">
-        <v>44747.0</v>
+        <v>44748.0</v>
       </c>
       <c r="B6299" s="2" t="n">
-        <v>13.0008</v>
+        <v>12.8223</v>
       </c>
     </row>
     <row r="6300">
       <c r="A6300" s="1" t="n">
-        <v>44748.0</v>
+        <v>44749.0</v>
       </c>
       <c r="B6300" s="2" t="n">
-        <v>12.8223</v>
+        <v>12.8615</v>
       </c>
     </row>
     <row r="6301">
       <c r="A6301" s="1" t="n">
-        <v>44749.0</v>
+        <v>44750.0</v>
       </c>
       <c r="B6301" s="2" t="n">
-        <v>12.8615</v>
+        <v>12.8122</v>
       </c>
     </row>
     <row r="6302">
       <c r="A6302" s="1" t="n">
-        <v>44750.0</v>
+        <v>44751.0</v>
       </c>
       <c r="B6302" s="2" t="n">
-        <v>12.8122</v>
+        <v>12.8097</v>
       </c>
     </row>
     <row r="6303">
       <c r="A6303" s="1" t="n">
-        <v>44751.0</v>
+        <v>44752.0</v>
       </c>
       <c r="B6303" s="2" t="n">
         <v>12.8097</v>
@@ -50508,55 +50508,55 @@
     </row>
     <row r="6304">
       <c r="A6304" s="1" t="n">
-        <v>44752.0</v>
+        <v>44753.0</v>
       </c>
       <c r="B6304" s="2" t="n">
-        <v>12.8097</v>
+        <v>12.6263</v>
       </c>
     </row>
     <row r="6305">
       <c r="A6305" s="1" t="n">
-        <v>44753.0</v>
+        <v>44754.0</v>
       </c>
       <c r="B6305" s="2" t="n">
-        <v>12.6263</v>
+        <v>12.5122</v>
       </c>
     </row>
     <row r="6306">
       <c r="A6306" s="1" t="n">
-        <v>44754.0</v>
+        <v>44755.0</v>
       </c>
       <c r="B6306" s="2" t="n">
-        <v>12.5122</v>
+        <v>12.515</v>
       </c>
     </row>
     <row r="6307">
       <c r="A6307" s="1" t="n">
-        <v>44755.0</v>
+        <v>44756.0</v>
       </c>
       <c r="B6307" s="2" t="n">
-        <v>12.515</v>
+        <v>12.4788</v>
       </c>
     </row>
     <row r="6308">
       <c r="A6308" s="1" t="n">
-        <v>44756.0</v>
+        <v>44757.0</v>
       </c>
       <c r="B6308" s="2" t="n">
-        <v>12.4788</v>
+        <v>12.2648</v>
       </c>
     </row>
     <row r="6309">
       <c r="A6309" s="1" t="n">
-        <v>44757.0</v>
+        <v>44758.0</v>
       </c>
       <c r="B6309" s="2" t="n">
-        <v>12.2648</v>
+        <v>12.2593</v>
       </c>
     </row>
     <row r="6310">
       <c r="A6310" s="1" t="n">
-        <v>44758.0</v>
+        <v>44759.0</v>
       </c>
       <c r="B6310" s="2" t="n">
         <v>12.2593</v>
@@ -50564,55 +50564,55 @@
     </row>
     <row r="6311">
       <c r="A6311" s="1" t="n">
-        <v>44759.0</v>
+        <v>44760.0</v>
       </c>
       <c r="B6311" s="2" t="n">
-        <v>12.2593</v>
+        <v>12.4014</v>
       </c>
     </row>
     <row r="6312">
       <c r="A6312" s="1" t="n">
-        <v>44760.0</v>
+        <v>44761.0</v>
       </c>
       <c r="B6312" s="2" t="n">
-        <v>12.4014</v>
+        <v>12.3595</v>
       </c>
     </row>
     <row r="6313">
       <c r="A6313" s="1" t="n">
-        <v>44761.0</v>
+        <v>44762.0</v>
       </c>
       <c r="B6313" s="2" t="n">
-        <v>12.3595</v>
+        <v>12.4119</v>
       </c>
     </row>
     <row r="6314">
       <c r="A6314" s="1" t="n">
-        <v>44762.0</v>
+        <v>44763.0</v>
       </c>
       <c r="B6314" s="2" t="n">
-        <v>12.4119</v>
+        <v>12.2713</v>
       </c>
     </row>
     <row r="6315">
       <c r="A6315" s="1" t="n">
-        <v>44763.0</v>
+        <v>44764.0</v>
       </c>
       <c r="B6315" s="2" t="n">
-        <v>12.2713</v>
+        <v>12.2787</v>
       </c>
     </row>
     <row r="6316">
       <c r="A6316" s="1" t="n">
-        <v>44764.0</v>
+        <v>44765.0</v>
       </c>
       <c r="B6316" s="2" t="n">
-        <v>12.2787</v>
+        <v>12.278</v>
       </c>
     </row>
     <row r="6317">
       <c r="A6317" s="1" t="n">
-        <v>44765.0</v>
+        <v>44766.0</v>
       </c>
       <c r="B6317" s="2" t="n">
         <v>12.278</v>
@@ -50620,55 +50620,55 @@
     </row>
     <row r="6318">
       <c r="A6318" s="1" t="n">
-        <v>44766.0</v>
+        <v>44767.0</v>
       </c>
       <c r="B6318" s="2" t="n">
-        <v>12.278</v>
+        <v>12.2213</v>
       </c>
     </row>
     <row r="6319">
       <c r="A6319" s="1" t="n">
-        <v>44767.0</v>
+        <v>44768.0</v>
       </c>
       <c r="B6319" s="2" t="n">
-        <v>12.2213</v>
+        <v>12.3012</v>
       </c>
     </row>
     <row r="6320">
       <c r="A6320" s="1" t="n">
-        <v>44768.0</v>
+        <v>44769.0</v>
       </c>
       <c r="B6320" s="2" t="n">
-        <v>12.3012</v>
+        <v>12.238</v>
       </c>
     </row>
     <row r="6321">
       <c r="A6321" s="1" t="n">
-        <v>44769.0</v>
+        <v>44770.0</v>
       </c>
       <c r="B6321" s="2" t="n">
-        <v>12.238</v>
+        <v>12.2406</v>
       </c>
     </row>
     <row r="6322">
       <c r="A6322" s="1" t="n">
-        <v>44770.0</v>
+        <v>44771.0</v>
       </c>
       <c r="B6322" s="2" t="n">
-        <v>12.2406</v>
+        <v>12.0937</v>
       </c>
     </row>
     <row r="6323">
       <c r="A6323" s="1" t="n">
-        <v>44771.0</v>
+        <v>44772.0</v>
       </c>
       <c r="B6323" s="2" t="n">
-        <v>12.0937</v>
+        <v>12.093</v>
       </c>
     </row>
     <row r="6324">
       <c r="A6324" s="1" t="n">
-        <v>44772.0</v>
+        <v>44773.0</v>
       </c>
       <c r="B6324" s="2" t="n">
         <v>12.093</v>
@@ -50676,47 +50676,47 @@
     </row>
     <row r="6325">
       <c r="A6325" s="1" t="n">
-        <v>44773.0</v>
+        <v>44774.0</v>
       </c>
       <c r="B6325" s="2" t="n">
-        <v>12.093</v>
+        <v>12.1374</v>
       </c>
     </row>
     <row r="6326">
       <c r="A6326" s="1" t="n">
-        <v>44774.0</v>
+        <v>44775.0</v>
       </c>
       <c r="B6326" s="2" t="n">
-        <v>12.1374</v>
+        <v>11.9269</v>
       </c>
     </row>
     <row r="6327">
       <c r="A6327" s="1" t="n">
-        <v>44775.0</v>
+        <v>44776.0</v>
       </c>
       <c r="B6327" s="2" t="n">
-        <v>11.9269</v>
+        <v>11.8164</v>
       </c>
     </row>
     <row r="6328">
       <c r="A6328" s="1" t="n">
-        <v>44776.0</v>
+        <v>44777.0</v>
       </c>
       <c r="B6328" s="2" t="n">
-        <v>11.8164</v>
+        <v>11.93</v>
       </c>
     </row>
     <row r="6329">
       <c r="A6329" s="1" t="n">
-        <v>44777.0</v>
+        <v>44778.0</v>
       </c>
       <c r="B6329" s="2" t="n">
-        <v>11.93</v>
+        <v>12.0566</v>
       </c>
     </row>
     <row r="6330">
       <c r="A6330" s="1" t="n">
-        <v>44778.0</v>
+        <v>44779.0</v>
       </c>
       <c r="B6330" s="2" t="n">
         <v>12.0566</v>
@@ -50724,7 +50724,7 @@
     </row>
     <row r="6331">
       <c r="A6331" s="1" t="n">
-        <v>44779.0</v>
+        <v>44780.0</v>
       </c>
       <c r="B6331" s="2" t="n">
         <v>12.0566</v>
@@ -50732,55 +50732,55 @@
     </row>
     <row r="6332">
       <c r="A6332" s="1" t="n">
-        <v>44780.0</v>
+        <v>44781.0</v>
       </c>
       <c r="B6332" s="2" t="n">
-        <v>12.0566</v>
+        <v>12.03</v>
       </c>
     </row>
     <row r="6333">
       <c r="A6333" s="1" t="n">
-        <v>44781.0</v>
+        <v>44782.0</v>
       </c>
       <c r="B6333" s="2" t="n">
-        <v>12.03</v>
+        <v>12.0541</v>
       </c>
     </row>
     <row r="6334">
       <c r="A6334" s="1" t="n">
-        <v>44782.0</v>
+        <v>44783.0</v>
       </c>
       <c r="B6334" s="2" t="n">
-        <v>12.0541</v>
+        <v>11.9356</v>
       </c>
     </row>
     <row r="6335">
       <c r="A6335" s="1" t="n">
-        <v>44783.0</v>
+        <v>44784.0</v>
       </c>
       <c r="B6335" s="2" t="n">
-        <v>11.9356</v>
+        <v>12.1618</v>
       </c>
     </row>
     <row r="6336">
       <c r="A6336" s="1" t="n">
-        <v>44784.0</v>
+        <v>44785.0</v>
       </c>
       <c r="B6336" s="2" t="n">
-        <v>12.1618</v>
+        <v>12.1453</v>
       </c>
     </row>
     <row r="6337">
       <c r="A6337" s="1" t="n">
-        <v>44785.0</v>
+        <v>44786.0</v>
       </c>
       <c r="B6337" s="2" t="n">
-        <v>12.1453</v>
+        <v>12.1403</v>
       </c>
     </row>
     <row r="6338">
       <c r="A6338" s="1" t="n">
-        <v>44786.0</v>
+        <v>44787.0</v>
       </c>
       <c r="B6338" s="2" t="n">
         <v>12.1403</v>
@@ -50788,55 +50788,55 @@
     </row>
     <row r="6339">
       <c r="A6339" s="1" t="n">
-        <v>44787.0</v>
+        <v>44788.0</v>
       </c>
       <c r="B6339" s="2" t="n">
-        <v>12.1403</v>
+        <v>12.1106</v>
       </c>
     </row>
     <row r="6340">
       <c r="A6340" s="1" t="n">
-        <v>44788.0</v>
+        <v>44789.0</v>
       </c>
       <c r="B6340" s="2" t="n">
-        <v>12.1106</v>
+        <v>12.0819</v>
       </c>
     </row>
     <row r="6341">
       <c r="A6341" s="1" t="n">
-        <v>44789.0</v>
+        <v>44790.0</v>
       </c>
       <c r="B6341" s="2" t="n">
-        <v>12.0819</v>
+        <v>12.188</v>
       </c>
     </row>
     <row r="6342">
       <c r="A6342" s="1" t="n">
-        <v>44790.0</v>
+        <v>44791.0</v>
       </c>
       <c r="B6342" s="2" t="n">
-        <v>12.188</v>
+        <v>12.0705</v>
       </c>
     </row>
     <row r="6343">
       <c r="A6343" s="1" t="n">
-        <v>44791.0</v>
+        <v>44792.0</v>
       </c>
       <c r="B6343" s="2" t="n">
-        <v>12.0705</v>
+        <v>12.0309</v>
       </c>
     </row>
     <row r="6344">
       <c r="A6344" s="1" t="n">
-        <v>44792.0</v>
+        <v>44793.0</v>
       </c>
       <c r="B6344" s="2" t="n">
-        <v>12.0309</v>
+        <v>12.0201</v>
       </c>
     </row>
     <row r="6345">
       <c r="A6345" s="1" t="n">
-        <v>44793.0</v>
+        <v>44794.0</v>
       </c>
       <c r="B6345" s="2" t="n">
         <v>12.0201</v>
@@ -50844,55 +50844,55 @@
     </row>
     <row r="6346">
       <c r="A6346" s="1" t="n">
-        <v>44794.0</v>
+        <v>44795.0</v>
       </c>
       <c r="B6346" s="2" t="n">
-        <v>12.0201</v>
+        <v>12.106</v>
       </c>
     </row>
     <row r="6347">
       <c r="A6347" s="1" t="n">
-        <v>44795.0</v>
+        <v>44796.0</v>
       </c>
       <c r="B6347" s="2" t="n">
-        <v>12.106</v>
+        <v>12.0431</v>
       </c>
     </row>
     <row r="6348">
       <c r="A6348" s="1" t="n">
-        <v>44796.0</v>
+        <v>44797.0</v>
       </c>
       <c r="B6348" s="2" t="n">
-        <v>12.0431</v>
+        <v>11.8255</v>
       </c>
     </row>
     <row r="6349">
       <c r="A6349" s="1" t="n">
-        <v>44797.0</v>
+        <v>44798.0</v>
       </c>
       <c r="B6349" s="2" t="n">
-        <v>11.8255</v>
+        <v>11.9348</v>
       </c>
     </row>
     <row r="6350">
       <c r="A6350" s="1" t="n">
-        <v>44798.0</v>
+        <v>44799.0</v>
       </c>
       <c r="B6350" s="2" t="n">
-        <v>11.9348</v>
+        <v>11.8805</v>
       </c>
     </row>
     <row r="6351">
       <c r="A6351" s="1" t="n">
-        <v>44799.0</v>
+        <v>44800.0</v>
       </c>
       <c r="B6351" s="2" t="n">
-        <v>11.8805</v>
+        <v>11.8342</v>
       </c>
     </row>
     <row r="6352">
       <c r="A6352" s="1" t="n">
-        <v>44800.0</v>
+        <v>44801.0</v>
       </c>
       <c r="B6352" s="2" t="n">
         <v>11.8342</v>
@@ -50900,55 +50900,55 @@
     </row>
     <row r="6353">
       <c r="A6353" s="1" t="n">
-        <v>44801.0</v>
+        <v>44802.0</v>
       </c>
       <c r="B6353" s="2" t="n">
-        <v>11.8342</v>
+        <v>11.7968</v>
       </c>
     </row>
     <row r="6354">
       <c r="A6354" s="1" t="n">
-        <v>44802.0</v>
+        <v>44803.0</v>
       </c>
       <c r="B6354" s="2" t="n">
-        <v>11.7968</v>
+        <v>11.7899</v>
       </c>
     </row>
     <row r="6355">
       <c r="A6355" s="1" t="n">
-        <v>44803.0</v>
+        <v>44804.0</v>
       </c>
       <c r="B6355" s="2" t="n">
-        <v>11.7899</v>
+        <v>11.7819</v>
       </c>
     </row>
     <row r="6356">
       <c r="A6356" s="1" t="n">
-        <v>44804.0</v>
+        <v>44805.0</v>
       </c>
       <c r="B6356" s="2" t="n">
-        <v>11.7819</v>
+        <v>11.6985</v>
       </c>
     </row>
     <row r="6357">
       <c r="A6357" s="1" t="n">
-        <v>44805.0</v>
+        <v>44806.0</v>
       </c>
       <c r="B6357" s="2" t="n">
-        <v>11.6985</v>
+        <v>11.6472</v>
       </c>
     </row>
     <row r="6358">
       <c r="A6358" s="1" t="n">
-        <v>44806.0</v>
+        <v>44807.0</v>
       </c>
       <c r="B6358" s="2" t="n">
-        <v>11.6472</v>
+        <v>11.6474</v>
       </c>
     </row>
     <row r="6359">
       <c r="A6359" s="1" t="n">
-        <v>44807.0</v>
+        <v>44808.0</v>
       </c>
       <c r="B6359" s="2" t="n">
         <v>11.6474</v>
@@ -50956,47 +50956,47 @@
     </row>
     <row r="6360">
       <c r="A6360" s="1" t="n">
-        <v>44808.0</v>
+        <v>44809.0</v>
       </c>
       <c r="B6360" s="2" t="n">
-        <v>11.6474</v>
+        <v>11.6591</v>
       </c>
     </row>
     <row r="6361">
       <c r="A6361" s="1" t="n">
-        <v>44809.0</v>
+        <v>44810.0</v>
       </c>
       <c r="B6361" s="2" t="n">
-        <v>11.6591</v>
+        <v>11.7485</v>
       </c>
     </row>
     <row r="6362">
       <c r="A6362" s="1" t="n">
-        <v>44810.0</v>
+        <v>44811.0</v>
       </c>
       <c r="B6362" s="2" t="n">
-        <v>11.7485</v>
+        <v>11.7561</v>
       </c>
     </row>
     <row r="6363">
       <c r="A6363" s="1" t="n">
-        <v>44811.0</v>
+        <v>44812.0</v>
       </c>
       <c r="B6363" s="2" t="n">
-        <v>11.7561</v>
+        <v>11.7228</v>
       </c>
     </row>
     <row r="6364">
       <c r="A6364" s="1" t="n">
-        <v>44812.0</v>
+        <v>44813.0</v>
       </c>
       <c r="B6364" s="2" t="n">
-        <v>11.7228</v>
+        <v>11.8703</v>
       </c>
     </row>
     <row r="6365">
       <c r="A6365" s="1" t="n">
-        <v>44813.0</v>
+        <v>44814.0</v>
       </c>
       <c r="B6365" s="2" t="n">
         <v>11.8703</v>
@@ -51004,7 +51004,7 @@
     </row>
     <row r="6366">
       <c r="A6366" s="1" t="n">
-        <v>44814.0</v>
+        <v>44815.0</v>
       </c>
       <c r="B6366" s="2" t="n">
         <v>11.8703</v>
@@ -51012,7 +51012,7 @@
     </row>
     <row r="6367">
       <c r="A6367" s="1" t="n">
-        <v>44815.0</v>
+        <v>44816.0</v>
       </c>
       <c r="B6367" s="2" t="n">
         <v>11.8703</v>
@@ -51020,47 +51020,47 @@
     </row>
     <row r="6368">
       <c r="A6368" s="1" t="n">
-        <v>44816.0</v>
+        <v>44817.0</v>
       </c>
       <c r="B6368" s="2" t="n">
-        <v>11.8703</v>
+        <v>11.9078</v>
       </c>
     </row>
     <row r="6369">
       <c r="A6369" s="1" t="n">
-        <v>44817.0</v>
+        <v>44818.0</v>
       </c>
       <c r="B6369" s="2" t="n">
-        <v>11.9078</v>
+        <v>11.7902</v>
       </c>
     </row>
     <row r="6370">
       <c r="A6370" s="1" t="n">
-        <v>44818.0</v>
+        <v>44819.0</v>
       </c>
       <c r="B6370" s="2" t="n">
-        <v>11.7902</v>
+        <v>11.7146</v>
       </c>
     </row>
     <row r="6371">
       <c r="A6371" s="1" t="n">
-        <v>44819.0</v>
+        <v>44820.0</v>
       </c>
       <c r="B6371" s="2" t="n">
-        <v>11.7146</v>
+        <v>11.4523</v>
       </c>
     </row>
     <row r="6372">
       <c r="A6372" s="1" t="n">
-        <v>44820.0</v>
+        <v>44821.0</v>
       </c>
       <c r="B6372" s="2" t="n">
-        <v>11.4523</v>
+        <v>11.4524</v>
       </c>
     </row>
     <row r="6373">
       <c r="A6373" s="1" t="n">
-        <v>44821.0</v>
+        <v>44822.0</v>
       </c>
       <c r="B6373" s="2" t="n">
         <v>11.4524</v>
@@ -51068,47 +51068,47 @@
     </row>
     <row r="6374">
       <c r="A6374" s="1" t="n">
-        <v>44822.0</v>
+        <v>44823.0</v>
       </c>
       <c r="B6374" s="2" t="n">
-        <v>11.4524</v>
+        <v>11.454</v>
       </c>
     </row>
     <row r="6375">
       <c r="A6375" s="1" t="n">
-        <v>44823.0</v>
+        <v>44824.0</v>
       </c>
       <c r="B6375" s="2" t="n">
-        <v>11.454</v>
+        <v>11.4481</v>
       </c>
     </row>
     <row r="6376">
       <c r="A6376" s="1" t="n">
-        <v>44824.0</v>
+        <v>44825.0</v>
       </c>
       <c r="B6376" s="2" t="n">
-        <v>11.4481</v>
+        <v>11.3896</v>
       </c>
     </row>
     <row r="6377">
       <c r="A6377" s="1" t="n">
-        <v>44825.0</v>
+        <v>44826.0</v>
       </c>
       <c r="B6377" s="2" t="n">
-        <v>11.3896</v>
+        <v>11.3268</v>
       </c>
     </row>
     <row r="6378">
       <c r="A6378" s="1" t="n">
-        <v>44826.0</v>
+        <v>44827.0</v>
       </c>
       <c r="B6378" s="2" t="n">
-        <v>11.3268</v>
+        <v>11.3346</v>
       </c>
     </row>
     <row r="6379">
       <c r="A6379" s="1" t="n">
-        <v>44827.0</v>
+        <v>44828.0</v>
       </c>
       <c r="B6379" s="2" t="n">
         <v>11.3346</v>
@@ -51116,7 +51116,7 @@
     </row>
     <row r="6380">
       <c r="A6380" s="1" t="n">
-        <v>44828.0</v>
+        <v>44829.0</v>
       </c>
       <c r="B6380" s="2" t="n">
         <v>11.3346</v>
@@ -51124,47 +51124,47 @@
     </row>
     <row r="6381">
       <c r="A6381" s="1" t="n">
-        <v>44829.0</v>
+        <v>44830.0</v>
       </c>
       <c r="B6381" s="2" t="n">
-        <v>11.3346</v>
+        <v>11.2386</v>
       </c>
     </row>
     <row r="6382">
       <c r="A6382" s="1" t="n">
-        <v>44830.0</v>
+        <v>44831.0</v>
       </c>
       <c r="B6382" s="2" t="n">
-        <v>11.2386</v>
+        <v>11.3826</v>
       </c>
     </row>
     <row r="6383">
       <c r="A6383" s="1" t="n">
-        <v>44831.0</v>
+        <v>44832.0</v>
       </c>
       <c r="B6383" s="2" t="n">
-        <v>11.3826</v>
+        <v>11.2416</v>
       </c>
     </row>
     <row r="6384">
       <c r="A6384" s="1" t="n">
-        <v>44832.0</v>
+        <v>44833.0</v>
       </c>
       <c r="B6384" s="2" t="n">
-        <v>11.2416</v>
+        <v>11.2293</v>
       </c>
     </row>
     <row r="6385">
       <c r="A6385" s="1" t="n">
-        <v>44833.0</v>
+        <v>44834.0</v>
       </c>
       <c r="B6385" s="2" t="n">
-        <v>11.2293</v>
+        <v>11.1934</v>
       </c>
     </row>
     <row r="6386">
       <c r="A6386" s="1" t="n">
-        <v>44834.0</v>
+        <v>44835.0</v>
       </c>
       <c r="B6386" s="2" t="n">
         <v>11.1934</v>
@@ -51172,7 +51172,7 @@
     </row>
     <row r="6387">
       <c r="A6387" s="1" t="n">
-        <v>44835.0</v>
+        <v>44836.0</v>
       </c>
       <c r="B6387" s="2" t="n">
         <v>11.1934</v>
@@ -51180,7 +51180,7 @@
     </row>
     <row r="6388">
       <c r="A6388" s="1" t="n">
-        <v>44836.0</v>
+        <v>44837.0</v>
       </c>
       <c r="B6388" s="2" t="n">
         <v>11.1934</v>
@@ -51188,7 +51188,7 @@
     </row>
     <row r="6389">
       <c r="A6389" s="1" t="n">
-        <v>44837.0</v>
+        <v>44838.0</v>
       </c>
       <c r="B6389" s="2" t="n">
         <v>11.1934</v>
@@ -51196,7 +51196,7 @@
     </row>
     <row r="6390">
       <c r="A6390" s="1" t="n">
-        <v>44838.0</v>
+        <v>44839.0</v>
       </c>
       <c r="B6390" s="2" t="n">
         <v>11.1934</v>
@@ -51204,7 +51204,7 @@
     </row>
     <row r="6391">
       <c r="A6391" s="1" t="n">
-        <v>44839.0</v>
+        <v>44840.0</v>
       </c>
       <c r="B6391" s="2" t="n">
         <v>11.1934</v>
@@ -51212,7 +51212,7 @@
     </row>
     <row r="6392">
       <c r="A6392" s="1" t="n">
-        <v>44840.0</v>
+        <v>44841.0</v>
       </c>
       <c r="B6392" s="2" t="n">
         <v>11.1934</v>
@@ -51220,7 +51220,7 @@
     </row>
     <row r="6393">
       <c r="A6393" s="1" t="n">
-        <v>44841.0</v>
+        <v>44842.0</v>
       </c>
       <c r="B6393" s="2" t="n">
         <v>11.1934</v>
@@ -51228,7 +51228,7 @@
     </row>
     <row r="6394">
       <c r="A6394" s="1" t="n">
-        <v>44842.0</v>
+        <v>44843.0</v>
       </c>
       <c r="B6394" s="2" t="n">
         <v>11.1934</v>
@@ -51236,55 +51236,55 @@
     </row>
     <row r="6395">
       <c r="A6395" s="1" t="n">
-        <v>44843.0</v>
+        <v>44844.0</v>
       </c>
       <c r="B6395" s="2" t="n">
-        <v>11.1934</v>
+        <v>11.0157</v>
       </c>
     </row>
     <row r="6396">
       <c r="A6396" s="1" t="n">
-        <v>44844.0</v>
+        <v>44845.0</v>
       </c>
       <c r="B6396" s="2" t="n">
-        <v>11.0157</v>
+        <v>11.0206</v>
       </c>
     </row>
     <row r="6397">
       <c r="A6397" s="1" t="n">
-        <v>44845.0</v>
+        <v>44846.0</v>
       </c>
       <c r="B6397" s="2" t="n">
-        <v>11.0206</v>
+        <v>11.1581</v>
       </c>
     </row>
     <row r="6398">
       <c r="A6398" s="1" t="n">
-        <v>44846.0</v>
+        <v>44847.0</v>
       </c>
       <c r="B6398" s="2" t="n">
-        <v>11.1581</v>
+        <v>11.0695</v>
       </c>
     </row>
     <row r="6399">
       <c r="A6399" s="1" t="n">
-        <v>44847.0</v>
+        <v>44848.0</v>
       </c>
       <c r="B6399" s="2" t="n">
-        <v>11.0695</v>
+        <v>11.2576</v>
       </c>
     </row>
     <row r="6400">
       <c r="A6400" s="1" t="n">
-        <v>44848.0</v>
+        <v>44849.0</v>
       </c>
       <c r="B6400" s="2" t="n">
-        <v>11.2576</v>
+        <v>11.2562</v>
       </c>
     </row>
     <row r="6401">
       <c r="A6401" s="1" t="n">
-        <v>44849.0</v>
+        <v>44850.0</v>
       </c>
       <c r="B6401" s="2" t="n">
         <v>11.2562</v>
@@ -51292,55 +51292,55 @@
     </row>
     <row r="6402">
       <c r="A6402" s="1" t="n">
-        <v>44850.0</v>
+        <v>44851.0</v>
       </c>
       <c r="B6402" s="2" t="n">
-        <v>11.2562</v>
+        <v>11.2573</v>
       </c>
     </row>
     <row r="6403">
       <c r="A6403" s="1" t="n">
-        <v>44851.0</v>
+        <v>44852.0</v>
       </c>
       <c r="B6403" s="2" t="n">
-        <v>11.2573</v>
+        <v>11.2214</v>
       </c>
     </row>
     <row r="6404">
       <c r="A6404" s="1" t="n">
-        <v>44852.0</v>
+        <v>44853.0</v>
       </c>
       <c r="B6404" s="2" t="n">
-        <v>11.2214</v>
+        <v>11.0724</v>
       </c>
     </row>
     <row r="6405">
       <c r="A6405" s="1" t="n">
-        <v>44853.0</v>
+        <v>44854.0</v>
       </c>
       <c r="B6405" s="2" t="n">
-        <v>11.0724</v>
+        <v>11.0272</v>
       </c>
     </row>
     <row r="6406">
       <c r="A6406" s="1" t="n">
-        <v>44854.0</v>
+        <v>44855.0</v>
       </c>
       <c r="B6406" s="2" t="n">
-        <v>11.0272</v>
+        <v>10.9783</v>
       </c>
     </row>
     <row r="6407">
       <c r="A6407" s="1" t="n">
-        <v>44855.0</v>
+        <v>44856.0</v>
       </c>
       <c r="B6407" s="2" t="n">
-        <v>10.9783</v>
+        <v>10.962</v>
       </c>
     </row>
     <row r="6408">
       <c r="A6408" s="1" t="n">
-        <v>44856.0</v>
+        <v>44857.0</v>
       </c>
       <c r="B6408" s="2" t="n">
         <v>10.962</v>
@@ -51348,55 +51348,55 @@
     </row>
     <row r="6409">
       <c r="A6409" s="1" t="n">
-        <v>44857.0</v>
+        <v>44858.0</v>
       </c>
       <c r="B6409" s="2" t="n">
-        <v>10.962</v>
+        <v>10.6849</v>
       </c>
     </row>
     <row r="6410">
       <c r="A6410" s="1" t="n">
-        <v>44858.0</v>
+        <v>44859.0</v>
       </c>
       <c r="B6410" s="2" t="n">
-        <v>10.6849</v>
+        <v>10.6514</v>
       </c>
     </row>
     <row r="6411">
       <c r="A6411" s="1" t="n">
-        <v>44859.0</v>
+        <v>44860.0</v>
       </c>
       <c r="B6411" s="2" t="n">
-        <v>10.6514</v>
+        <v>10.6891</v>
       </c>
     </row>
     <row r="6412">
       <c r="A6412" s="1" t="n">
-        <v>44860.0</v>
+        <v>44861.0</v>
       </c>
       <c r="B6412" s="2" t="n">
-        <v>10.6891</v>
+        <v>10.635</v>
       </c>
     </row>
     <row r="6413">
       <c r="A6413" s="1" t="n">
-        <v>44861.0</v>
+        <v>44862.0</v>
       </c>
       <c r="B6413" s="2" t="n">
-        <v>10.635</v>
+        <v>10.3781</v>
       </c>
     </row>
     <row r="6414">
       <c r="A6414" s="1" t="n">
-        <v>44862.0</v>
+        <v>44863.0</v>
       </c>
       <c r="B6414" s="2" t="n">
-        <v>10.3781</v>
+        <v>10.3923</v>
       </c>
     </row>
     <row r="6415">
       <c r="A6415" s="1" t="n">
-        <v>44863.0</v>
+        <v>44864.0</v>
       </c>
       <c r="B6415" s="2" t="n">
         <v>10.3923</v>
@@ -51404,55 +51404,55 @@
     </row>
     <row r="6416">
       <c r="A6416" s="1" t="n">
-        <v>44864.0</v>
+        <v>44865.0</v>
       </c>
       <c r="B6416" s="2" t="n">
-        <v>10.3923</v>
+        <v>10.2874</v>
       </c>
     </row>
     <row r="6417">
       <c r="A6417" s="1" t="n">
-        <v>44865.0</v>
+        <v>44866.0</v>
       </c>
       <c r="B6417" s="2" t="n">
-        <v>10.2874</v>
+        <v>10.5928</v>
       </c>
     </row>
     <row r="6418">
       <c r="A6418" s="1" t="n">
-        <v>44866.0</v>
+        <v>44867.0</v>
       </c>
       <c r="B6418" s="2" t="n">
-        <v>10.5928</v>
+        <v>10.6974</v>
       </c>
     </row>
     <row r="6419">
       <c r="A6419" s="1" t="n">
-        <v>44867.0</v>
+        <v>44868.0</v>
       </c>
       <c r="B6419" s="2" t="n">
-        <v>10.6974</v>
+        <v>10.6188</v>
       </c>
     </row>
     <row r="6420">
       <c r="A6420" s="1" t="n">
-        <v>44868.0</v>
+        <v>44869.0</v>
       </c>
       <c r="B6420" s="2" t="n">
-        <v>10.6188</v>
+        <v>10.9233</v>
       </c>
     </row>
     <row r="6421">
       <c r="A6421" s="1" t="n">
-        <v>44869.0</v>
+        <v>44870.0</v>
       </c>
       <c r="B6421" s="2" t="n">
-        <v>10.9233</v>
+        <v>10.9235</v>
       </c>
     </row>
     <row r="6422">
       <c r="A6422" s="1" t="n">
-        <v>44870.0</v>
+        <v>44871.0</v>
       </c>
       <c r="B6422" s="2" t="n">
         <v>10.9235</v>
@@ -51460,55 +51460,55 @@
     </row>
     <row r="6423">
       <c r="A6423" s="1" t="n">
-        <v>44871.0</v>
+        <v>44872.0</v>
       </c>
       <c r="B6423" s="2" t="n">
-        <v>10.9235</v>
+        <v>10.9465</v>
       </c>
     </row>
     <row r="6424">
       <c r="A6424" s="1" t="n">
-        <v>44872.0</v>
+        <v>44873.0</v>
       </c>
       <c r="B6424" s="2" t="n">
-        <v>10.9465</v>
+        <v>10.8873</v>
       </c>
     </row>
     <row r="6425">
       <c r="A6425" s="1" t="n">
-        <v>44873.0</v>
+        <v>44874.0</v>
       </c>
       <c r="B6425" s="2" t="n">
-        <v>10.8873</v>
+        <v>10.7997</v>
       </c>
     </row>
     <row r="6426">
       <c r="A6426" s="1" t="n">
-        <v>44874.0</v>
+        <v>44875.0</v>
       </c>
       <c r="B6426" s="2" t="n">
-        <v>10.7997</v>
+        <v>10.7434</v>
       </c>
     </row>
     <row r="6427">
       <c r="A6427" s="1" t="n">
-        <v>44875.0</v>
+        <v>44876.0</v>
       </c>
       <c r="B6427" s="2" t="n">
-        <v>10.7434</v>
+        <v>11.0051</v>
       </c>
     </row>
     <row r="6428">
       <c r="A6428" s="1" t="n">
-        <v>44876.0</v>
+        <v>44877.0</v>
       </c>
       <c r="B6428" s="2" t="n">
-        <v>11.0051</v>
+        <v>11.0053</v>
       </c>
     </row>
     <row r="6429">
       <c r="A6429" s="1" t="n">
-        <v>44877.0</v>
+        <v>44878.0</v>
       </c>
       <c r="B6429" s="2" t="n">
         <v>11.0053</v>
@@ -51516,47 +51516,47 @@
     </row>
     <row r="6430">
       <c r="A6430" s="1" t="n">
-        <v>44878.0</v>
+        <v>44879.0</v>
       </c>
       <c r="B6430" s="2" t="n">
-        <v>11.0053</v>
+        <v>11.0051</v>
       </c>
     </row>
     <row r="6431">
       <c r="A6431" s="1" t="n">
-        <v>44879.0</v>
+        <v>44880.0</v>
       </c>
       <c r="B6431" s="2" t="n">
-        <v>11.0051</v>
+        <v>11.1693</v>
       </c>
     </row>
     <row r="6432">
       <c r="A6432" s="1" t="n">
-        <v>44880.0</v>
+        <v>44881.0</v>
       </c>
       <c r="B6432" s="2" t="n">
-        <v>11.1693</v>
+        <v>11.0956</v>
       </c>
     </row>
     <row r="6433">
       <c r="A6433" s="1" t="n">
-        <v>44881.0</v>
+        <v>44882.0</v>
       </c>
       <c r="B6433" s="2" t="n">
-        <v>11.0956</v>
+        <v>11.052</v>
       </c>
     </row>
     <row r="6434">
       <c r="A6434" s="1" t="n">
-        <v>44882.0</v>
+        <v>44883.0</v>
       </c>
       <c r="B6434" s="2" t="n">
-        <v>11.052</v>
+        <v>11.0134</v>
       </c>
     </row>
     <row r="6435">
       <c r="A6435" s="1" t="n">
-        <v>44883.0</v>
+        <v>44884.0</v>
       </c>
       <c r="B6435" s="2" t="n">
         <v>11.0134</v>
@@ -51564,7 +51564,7 @@
     </row>
     <row r="6436">
       <c r="A6436" s="1" t="n">
-        <v>44884.0</v>
+        <v>44885.0</v>
       </c>
       <c r="B6436" s="2" t="n">
         <v>11.0134</v>
@@ -51572,47 +51572,47 @@
     </row>
     <row r="6437">
       <c r="A6437" s="1" t="n">
-        <v>44885.0</v>
+        <v>44886.0</v>
       </c>
       <c r="B6437" s="2" t="n">
-        <v>11.0134</v>
+        <v>10.9305</v>
       </c>
     </row>
     <row r="6438">
       <c r="A6438" s="1" t="n">
-        <v>44886.0</v>
+        <v>44887.0</v>
       </c>
       <c r="B6438" s="2" t="n">
-        <v>10.9305</v>
+        <v>10.994</v>
       </c>
     </row>
     <row r="6439">
       <c r="A6439" s="1" t="n">
-        <v>44887.0</v>
+        <v>44888.0</v>
       </c>
       <c r="B6439" s="2" t="n">
-        <v>10.994</v>
+        <v>11.0179</v>
       </c>
     </row>
     <row r="6440">
       <c r="A6440" s="1" t="n">
-        <v>44888.0</v>
+        <v>44889.0</v>
       </c>
       <c r="B6440" s="2" t="n">
-        <v>11.0179</v>
+        <v>10.97</v>
       </c>
     </row>
     <row r="6441">
       <c r="A6441" s="1" t="n">
-        <v>44889.0</v>
+        <v>44890.0</v>
       </c>
       <c r="B6441" s="2" t="n">
-        <v>10.97</v>
+        <v>11.081</v>
       </c>
     </row>
     <row r="6442">
       <c r="A6442" s="1" t="n">
-        <v>44890.0</v>
+        <v>44891.0</v>
       </c>
       <c r="B6442" s="2" t="n">
         <v>11.081</v>
@@ -51620,7 +51620,7 @@
     </row>
     <row r="6443">
       <c r="A6443" s="1" t="n">
-        <v>44891.0</v>
+        <v>44892.0</v>
       </c>
       <c r="B6443" s="2" t="n">
         <v>11.081</v>
@@ -51628,47 +51628,47 @@
     </row>
     <row r="6444">
       <c r="A6444" s="1" t="n">
-        <v>44892.0</v>
+        <v>44893.0</v>
       </c>
       <c r="B6444" s="2" t="n">
-        <v>11.081</v>
+        <v>10.9695</v>
       </c>
     </row>
     <row r="6445">
       <c r="A6445" s="1" t="n">
-        <v>44893.0</v>
+        <v>44894.0</v>
       </c>
       <c r="B6445" s="2" t="n">
-        <v>10.9695</v>
+        <v>11.2647</v>
       </c>
     </row>
     <row r="6446">
       <c r="A6446" s="1" t="n">
-        <v>44894.0</v>
+        <v>44895.0</v>
       </c>
       <c r="B6446" s="2" t="n">
-        <v>11.2647</v>
+        <v>11.3021</v>
       </c>
     </row>
     <row r="6447">
       <c r="A6447" s="1" t="n">
-        <v>44895.0</v>
+        <v>44896.0</v>
       </c>
       <c r="B6447" s="2" t="n">
-        <v>11.3021</v>
+        <v>11.372</v>
       </c>
     </row>
     <row r="6448">
       <c r="A6448" s="1" t="n">
-        <v>44896.0</v>
+        <v>44897.0</v>
       </c>
       <c r="B6448" s="2" t="n">
-        <v>11.372</v>
+        <v>11.2986</v>
       </c>
     </row>
     <row r="6449">
       <c r="A6449" s="1" t="n">
-        <v>44897.0</v>
+        <v>44898.0</v>
       </c>
       <c r="B6449" s="2" t="n">
         <v>11.2986</v>
@@ -51676,7 +51676,7 @@
     </row>
     <row r="6450">
       <c r="A6450" s="1" t="n">
-        <v>44898.0</v>
+        <v>44899.0</v>
       </c>
       <c r="B6450" s="2" t="n">
         <v>11.2986</v>
@@ -51684,47 +51684,47 @@
     </row>
     <row r="6451">
       <c r="A6451" s="1" t="n">
-        <v>44899.0</v>
+        <v>44900.0</v>
       </c>
       <c r="B6451" s="2" t="n">
-        <v>11.2986</v>
+        <v>11.5619</v>
       </c>
     </row>
     <row r="6452">
       <c r="A6452" s="1" t="n">
-        <v>44900.0</v>
+        <v>44901.0</v>
       </c>
       <c r="B6452" s="2" t="n">
-        <v>11.5619</v>
+        <v>11.6107</v>
       </c>
     </row>
     <row r="6453">
       <c r="A6453" s="1" t="n">
-        <v>44901.0</v>
+        <v>44902.0</v>
       </c>
       <c r="B6453" s="2" t="n">
-        <v>11.6107</v>
+        <v>11.5475</v>
       </c>
     </row>
     <row r="6454">
       <c r="A6454" s="1" t="n">
-        <v>44902.0</v>
+        <v>44903.0</v>
       </c>
       <c r="B6454" s="2" t="n">
-        <v>11.5475</v>
+        <v>11.5452</v>
       </c>
     </row>
     <row r="6455">
       <c r="A6455" s="1" t="n">
-        <v>44903.0</v>
+        <v>44904.0</v>
       </c>
       <c r="B6455" s="2" t="n">
-        <v>11.5452</v>
+        <v>11.6331</v>
       </c>
     </row>
     <row r="6456">
       <c r="A6456" s="1" t="n">
-        <v>44904.0</v>
+        <v>44905.0</v>
       </c>
       <c r="B6456" s="2" t="n">
         <v>11.6331</v>
@@ -51732,7 +51732,7 @@
     </row>
     <row r="6457">
       <c r="A6457" s="1" t="n">
-        <v>44905.0</v>
+        <v>44906.0</v>
       </c>
       <c r="B6457" s="2" t="n">
         <v>11.6331</v>
@@ -51740,47 +51740,47 @@
     </row>
     <row r="6458">
       <c r="A6458" s="1" t="n">
-        <v>44906.0</v>
+        <v>44907.0</v>
       </c>
       <c r="B6458" s="2" t="n">
-        <v>11.6331</v>
+        <v>11.5285</v>
       </c>
     </row>
     <row r="6459">
       <c r="A6459" s="1" t="n">
-        <v>44907.0</v>
+        <v>44908.0</v>
       </c>
       <c r="B6459" s="2" t="n">
-        <v>11.5285</v>
+        <v>11.5343</v>
       </c>
     </row>
     <row r="6460">
       <c r="A6460" s="1" t="n">
-        <v>44908.0</v>
+        <v>44909.0</v>
       </c>
       <c r="B6460" s="2" t="n">
-        <v>11.5343</v>
+        <v>11.5521</v>
       </c>
     </row>
     <row r="6461">
       <c r="A6461" s="1" t="n">
-        <v>44909.0</v>
+        <v>44910.0</v>
       </c>
       <c r="B6461" s="2" t="n">
-        <v>11.5521</v>
+        <v>11.5192</v>
       </c>
     </row>
     <row r="6462">
       <c r="A6462" s="1" t="n">
-        <v>44910.0</v>
+        <v>44911.0</v>
       </c>
       <c r="B6462" s="2" t="n">
-        <v>11.5192</v>
+        <v>11.5448</v>
       </c>
     </row>
     <row r="6463">
       <c r="A6463" s="1" t="n">
-        <v>44911.0</v>
+        <v>44912.0</v>
       </c>
       <c r="B6463" s="2" t="n">
         <v>11.5448</v>
@@ -51788,7 +51788,7 @@
     </row>
     <row r="6464">
       <c r="A6464" s="1" t="n">
-        <v>44912.0</v>
+        <v>44913.0</v>
       </c>
       <c r="B6464" s="2" t="n">
         <v>11.5448</v>
@@ -51796,55 +51796,55 @@
     </row>
     <row r="6465">
       <c r="A6465" s="1" t="n">
-        <v>44913.0</v>
+        <v>44914.0</v>
       </c>
       <c r="B6465" s="2" t="n">
-        <v>11.5448</v>
+        <v>11.355</v>
       </c>
     </row>
     <row r="6466">
       <c r="A6466" s="1" t="n">
-        <v>44914.0</v>
+        <v>44915.0</v>
       </c>
       <c r="B6466" s="2" t="n">
-        <v>11.355</v>
+        <v>11.194</v>
       </c>
     </row>
     <row r="6467">
       <c r="A6467" s="1" t="n">
-        <v>44915.0</v>
+        <v>44916.0</v>
       </c>
       <c r="B6467" s="2" t="n">
-        <v>11.194</v>
+        <v>11.2049</v>
       </c>
     </row>
     <row r="6468">
       <c r="A6468" s="1" t="n">
-        <v>44916.0</v>
+        <v>44917.0</v>
       </c>
       <c r="B6468" s="2" t="n">
-        <v>11.2049</v>
+        <v>11.2292</v>
       </c>
     </row>
     <row r="6469">
       <c r="A6469" s="1" t="n">
-        <v>44917.0</v>
+        <v>44918.0</v>
       </c>
       <c r="B6469" s="2" t="n">
-        <v>11.2292</v>
+        <v>11.2116</v>
       </c>
     </row>
     <row r="6470">
       <c r="A6470" s="1" t="n">
-        <v>44918.0</v>
+        <v>44919.0</v>
       </c>
       <c r="B6470" s="2" t="n">
-        <v>11.2116</v>
+        <v>11.2088</v>
       </c>
     </row>
     <row r="6471">
       <c r="A6471" s="1" t="n">
-        <v>44919.0</v>
+        <v>44920.0</v>
       </c>
       <c r="B6471" s="2" t="n">
         <v>11.2088</v>
@@ -51852,47 +51852,47 @@
     </row>
     <row r="6472">
       <c r="A6472" s="1" t="n">
-        <v>44920.0</v>
+        <v>44921.0</v>
       </c>
       <c r="B6472" s="2" t="n">
-        <v>11.2088</v>
+        <v>11.2387</v>
       </c>
     </row>
     <row r="6473">
       <c r="A6473" s="1" t="n">
-        <v>44921.0</v>
+        <v>44922.0</v>
       </c>
       <c r="B6473" s="2" t="n">
-        <v>11.2387</v>
+        <v>11.3731</v>
       </c>
     </row>
     <row r="6474">
       <c r="A6474" s="1" t="n">
-        <v>44922.0</v>
+        <v>44923.0</v>
       </c>
       <c r="B6474" s="2" t="n">
-        <v>11.3731</v>
+        <v>11.3418</v>
       </c>
     </row>
     <row r="6475">
       <c r="A6475" s="1" t="n">
-        <v>44923.0</v>
+        <v>44924.0</v>
       </c>
       <c r="B6475" s="2" t="n">
-        <v>11.3418</v>
+        <v>11.2738</v>
       </c>
     </row>
     <row r="6476">
       <c r="A6476" s="1" t="n">
-        <v>44924.0</v>
+        <v>44925.0</v>
       </c>
       <c r="B6476" s="2" t="n">
-        <v>11.2738</v>
+        <v>11.3197</v>
       </c>
     </row>
     <row r="6477">
       <c r="A6477" s="1" t="n">
-        <v>44925.0</v>
+        <v>44926.0</v>
       </c>
       <c r="B6477" s="2" t="n">
         <v>11.3197</v>
@@ -51900,7 +51900,7 @@
     </row>
     <row r="6478">
       <c r="A6478" s="1" t="n">
-        <v>44926.0</v>
+        <v>44927.0</v>
       </c>
       <c r="B6478" s="2" t="n">
         <v>11.3197</v>
@@ -51908,7 +51908,7 @@
     </row>
     <row r="6479">
       <c r="A6479" s="1" t="n">
-        <v>44927.0</v>
+        <v>44928.0</v>
       </c>
       <c r="B6479" s="2" t="n">
         <v>11.3197</v>
@@ -51916,39 +51916,39 @@
     </row>
     <row r="6480">
       <c r="A6480" s="1" t="n">
-        <v>44928.0</v>
+        <v>44929.0</v>
       </c>
       <c r="B6480" s="2" t="n">
-        <v>11.3197</v>
+        <v>11.3759</v>
       </c>
     </row>
     <row r="6481">
       <c r="A6481" s="1" t="n">
-        <v>44929.0</v>
+        <v>44930.0</v>
       </c>
       <c r="B6481" s="2" t="n">
-        <v>11.3759</v>
+        <v>11.4139</v>
       </c>
     </row>
     <row r="6482">
       <c r="A6482" s="1" t="n">
-        <v>44930.0</v>
+        <v>44931.0</v>
       </c>
       <c r="B6482" s="2" t="n">
-        <v>11.4139</v>
+        <v>11.5842</v>
       </c>
     </row>
     <row r="6483">
       <c r="A6483" s="1" t="n">
-        <v>44931.0</v>
+        <v>44932.0</v>
       </c>
       <c r="B6483" s="2" t="n">
-        <v>11.5842</v>
+        <v>11.627</v>
       </c>
     </row>
     <row r="6484">
       <c r="A6484" s="1" t="n">
-        <v>44932.0</v>
+        <v>44933.0</v>
       </c>
       <c r="B6484" s="2" t="n">
         <v>11.627</v>
@@ -51956,7 +51956,7 @@
     </row>
     <row r="6485">
       <c r="A6485" s="1" t="n">
-        <v>44933.0</v>
+        <v>44934.0</v>
       </c>
       <c r="B6485" s="2" t="n">
         <v>11.627</v>
@@ -51964,55 +51964,55 @@
     </row>
     <row r="6486">
       <c r="A6486" s="1" t="n">
-        <v>44934.0</v>
+        <v>44935.0</v>
       </c>
       <c r="B6486" s="2" t="n">
-        <v>11.627</v>
+        <v>11.699</v>
       </c>
     </row>
     <row r="6487">
       <c r="A6487" s="1" t="n">
-        <v>44935.0</v>
+        <v>44936.0</v>
       </c>
       <c r="B6487" s="2" t="n">
-        <v>11.699</v>
+        <v>11.6884</v>
       </c>
     </row>
     <row r="6488">
       <c r="A6488" s="1" t="n">
-        <v>44936.0</v>
+        <v>44937.0</v>
       </c>
       <c r="B6488" s="2" t="n">
-        <v>11.6884</v>
+        <v>11.6946</v>
       </c>
     </row>
     <row r="6489">
       <c r="A6489" s="1" t="n">
-        <v>44937.0</v>
+        <v>44938.0</v>
       </c>
       <c r="B6489" s="2" t="n">
-        <v>11.6946</v>
+        <v>11.7195</v>
       </c>
     </row>
     <row r="6490">
       <c r="A6490" s="1" t="n">
-        <v>44938.0</v>
+        <v>44939.0</v>
       </c>
       <c r="B6490" s="2" t="n">
-        <v>11.7195</v>
+        <v>11.8709</v>
       </c>
     </row>
     <row r="6491">
       <c r="A6491" s="1" t="n">
-        <v>44939.0</v>
+        <v>44940.0</v>
       </c>
       <c r="B6491" s="2" t="n">
-        <v>11.8709</v>
+        <v>11.8618</v>
       </c>
     </row>
     <row r="6492">
       <c r="A6492" s="1" t="n">
-        <v>44940.0</v>
+        <v>44941.0</v>
       </c>
       <c r="B6492" s="2" t="n">
         <v>11.8618</v>
@@ -52020,47 +52020,47 @@
     </row>
     <row r="6493">
       <c r="A6493" s="1" t="n">
-        <v>44941.0</v>
+        <v>44942.0</v>
       </c>
       <c r="B6493" s="2" t="n">
-        <v>11.8618</v>
+        <v>11.983</v>
       </c>
     </row>
     <row r="6494">
       <c r="A6494" s="1" t="n">
-        <v>44942.0</v>
+        <v>44943.0</v>
       </c>
       <c r="B6494" s="2" t="n">
-        <v>11.983</v>
+        <v>11.9581</v>
       </c>
     </row>
     <row r="6495">
       <c r="A6495" s="1" t="n">
-        <v>44943.0</v>
+        <v>44944.0</v>
       </c>
       <c r="B6495" s="2" t="n">
-        <v>11.9581</v>
+        <v>11.9587</v>
       </c>
     </row>
     <row r="6496">
       <c r="A6496" s="1" t="n">
-        <v>44944.0</v>
+        <v>44945.0</v>
       </c>
       <c r="B6496" s="2" t="n">
-        <v>11.9587</v>
+        <v>12.0089</v>
       </c>
     </row>
     <row r="6497">
       <c r="A6497" s="1" t="n">
-        <v>44945.0</v>
+        <v>44946.0</v>
       </c>
       <c r="B6497" s="2" t="n">
-        <v>12.0089</v>
+        <v>12.0998</v>
       </c>
     </row>
     <row r="6498">
       <c r="A6498" s="1" t="n">
-        <v>44946.0</v>
+        <v>44947.0</v>
       </c>
       <c r="B6498" s="2" t="n">
         <v>12.0998</v>
@@ -52068,7 +52068,7 @@
     </row>
     <row r="6499">
       <c r="A6499" s="1" t="n">
-        <v>44947.0</v>
+        <v>44948.0</v>
       </c>
       <c r="B6499" s="2" t="n">
         <v>12.0998</v>
@@ -52076,7 +52076,7 @@
     </row>
     <row r="6500">
       <c r="A6500" s="1" t="n">
-        <v>44948.0</v>
+        <v>44949.0</v>
       </c>
       <c r="B6500" s="2" t="n">
         <v>12.0998</v>
@@ -52084,7 +52084,7 @@
     </row>
     <row r="6501">
       <c r="A6501" s="1" t="n">
-        <v>44949.0</v>
+        <v>44950.0</v>
       </c>
       <c r="B6501" s="2" t="n">
         <v>12.0998</v>
@@ -52092,7 +52092,7 @@
     </row>
     <row r="6502">
       <c r="A6502" s="1" t="n">
-        <v>44950.0</v>
+        <v>44951.0</v>
       </c>
       <c r="B6502" s="2" t="n">
         <v>12.0998</v>
@@ -52100,7 +52100,7 @@
     </row>
     <row r="6503">
       <c r="A6503" s="1" t="n">
-        <v>44951.0</v>
+        <v>44952.0</v>
       </c>
       <c r="B6503" s="2" t="n">
         <v>12.0998</v>
@@ -52108,7 +52108,7 @@
     </row>
     <row r="6504">
       <c r="A6504" s="1" t="n">
-        <v>44952.0</v>
+        <v>44953.0</v>
       </c>
       <c r="B6504" s="2" t="n">
         <v>12.0998</v>
@@ -52116,7 +52116,7 @@
     </row>
     <row r="6505">
       <c r="A6505" s="1" t="n">
-        <v>44953.0</v>
+        <v>44954.0</v>
       </c>
       <c r="B6505" s="2" t="n">
         <v>12.0998</v>
@@ -52124,7 +52124,7 @@
     </row>
     <row r="6506">
       <c r="A6506" s="1" t="n">
-        <v>44954.0</v>
+        <v>44955.0</v>
       </c>
       <c r="B6506" s="2" t="n">
         <v>12.0998</v>
@@ -52132,55 +52132,55 @@
     </row>
     <row r="6507">
       <c r="A6507" s="1" t="n">
-        <v>44955.0</v>
+        <v>44956.0</v>
       </c>
       <c r="B6507" s="2" t="n">
-        <v>12.0998</v>
+        <v>12.1171</v>
       </c>
     </row>
     <row r="6508">
       <c r="A6508" s="1" t="n">
-        <v>44956.0</v>
+        <v>44957.0</v>
       </c>
       <c r="B6508" s="2" t="n">
-        <v>12.1171</v>
+        <v>12.0251</v>
       </c>
     </row>
     <row r="6509">
       <c r="A6509" s="1" t="n">
-        <v>44957.0</v>
+        <v>44958.0</v>
       </c>
       <c r="B6509" s="2" t="n">
-        <v>12.0251</v>
+        <v>12.1287</v>
       </c>
     </row>
     <row r="6510">
       <c r="A6510" s="1" t="n">
-        <v>44958.0</v>
+        <v>44959.0</v>
       </c>
       <c r="B6510" s="2" t="n">
-        <v>12.1287</v>
+        <v>12.0948</v>
       </c>
     </row>
     <row r="6511">
       <c r="A6511" s="1" t="n">
-        <v>44959.0</v>
+        <v>44960.0</v>
       </c>
       <c r="B6511" s="2" t="n">
-        <v>12.0948</v>
+        <v>12.0006</v>
       </c>
     </row>
     <row r="6512">
       <c r="A6512" s="1" t="n">
-        <v>44960.0</v>
+        <v>44961.0</v>
       </c>
       <c r="B6512" s="2" t="n">
-        <v>12.0006</v>
+        <v>12.0028</v>
       </c>
     </row>
     <row r="6513">
       <c r="A6513" s="1" t="n">
-        <v>44961.0</v>
+        <v>44962.0</v>
       </c>
       <c r="B6513" s="2" t="n">
         <v>12.0028</v>
@@ -52188,55 +52188,55 @@
     </row>
     <row r="6514">
       <c r="A6514" s="1" t="n">
-        <v>44962.0</v>
+        <v>44963.0</v>
       </c>
       <c r="B6514" s="2" t="n">
-        <v>12.0028</v>
+        <v>11.8761</v>
       </c>
     </row>
     <row r="6515">
       <c r="A6515" s="1" t="n">
-        <v>44963.0</v>
+        <v>44964.0</v>
       </c>
       <c r="B6515" s="2" t="n">
-        <v>11.8761</v>
+        <v>11.8914</v>
       </c>
     </row>
     <row r="6516">
       <c r="A6516" s="1" t="n">
-        <v>44964.0</v>
+        <v>44965.0</v>
       </c>
       <c r="B6516" s="2" t="n">
-        <v>11.8914</v>
+        <v>11.8423</v>
       </c>
     </row>
     <row r="6517">
       <c r="A6517" s="1" t="n">
-        <v>44965.0</v>
+        <v>44966.0</v>
       </c>
       <c r="B6517" s="2" t="n">
-        <v>11.8423</v>
+        <v>11.9852</v>
       </c>
     </row>
     <row r="6518">
       <c r="A6518" s="1" t="n">
-        <v>44966.0</v>
+        <v>44967.0</v>
       </c>
       <c r="B6518" s="2" t="n">
-        <v>11.9852</v>
+        <v>11.9297</v>
       </c>
     </row>
     <row r="6519">
       <c r="A6519" s="1" t="n">
-        <v>44967.0</v>
+        <v>44968.0</v>
       </c>
       <c r="B6519" s="2" t="n">
-        <v>11.9297</v>
+        <v>11.9278</v>
       </c>
     </row>
     <row r="6520">
       <c r="A6520" s="1" t="n">
-        <v>44968.0</v>
+        <v>44969.0</v>
       </c>
       <c r="B6520" s="2" t="n">
         <v>11.9278</v>
@@ -52244,55 +52244,55 @@
     </row>
     <row r="6521">
       <c r="A6521" s="1" t="n">
-        <v>44969.0</v>
+        <v>44970.0</v>
       </c>
       <c r="B6521" s="2" t="n">
-        <v>11.9278</v>
+        <v>12.017</v>
       </c>
     </row>
     <row r="6522">
       <c r="A6522" s="1" t="n">
-        <v>44970.0</v>
+        <v>44971.0</v>
       </c>
       <c r="B6522" s="2" t="n">
-        <v>12.017</v>
+        <v>12.0375</v>
       </c>
     </row>
     <row r="6523">
       <c r="A6523" s="1" t="n">
-        <v>44971.0</v>
+        <v>44972.0</v>
       </c>
       <c r="B6523" s="2" t="n">
-        <v>12.0375</v>
+        <v>11.9822</v>
       </c>
     </row>
     <row r="6524">
       <c r="A6524" s="1" t="n">
-        <v>44972.0</v>
+        <v>44973.0</v>
       </c>
       <c r="B6524" s="2" t="n">
-        <v>11.9822</v>
+        <v>11.9269</v>
       </c>
     </row>
     <row r="6525">
       <c r="A6525" s="1" t="n">
-        <v>44973.0</v>
+        <v>44974.0</v>
       </c>
       <c r="B6525" s="2" t="n">
-        <v>11.9269</v>
+        <v>11.7876</v>
       </c>
     </row>
     <row r="6526">
       <c r="A6526" s="1" t="n">
-        <v>44974.0</v>
+        <v>44975.0</v>
       </c>
       <c r="B6526" s="2" t="n">
-        <v>11.7876</v>
+        <v>11.7913</v>
       </c>
     </row>
     <row r="6527">
       <c r="A6527" s="1" t="n">
-        <v>44975.0</v>
+        <v>44976.0</v>
       </c>
       <c r="B6527" s="2" t="n">
         <v>11.7913</v>
@@ -52300,55 +52300,55 @@
     </row>
     <row r="6528">
       <c r="A6528" s="1" t="n">
-        <v>44976.0</v>
+        <v>44977.0</v>
       </c>
       <c r="B6528" s="2" t="n">
-        <v>11.7913</v>
+        <v>12.085</v>
       </c>
     </row>
     <row r="6529">
       <c r="A6529" s="1" t="n">
-        <v>44977.0</v>
+        <v>44978.0</v>
       </c>
       <c r="B6529" s="2" t="n">
-        <v>12.085</v>
+        <v>12.0939</v>
       </c>
     </row>
     <row r="6530">
       <c r="A6530" s="1" t="n">
-        <v>44978.0</v>
+        <v>44979.0</v>
       </c>
       <c r="B6530" s="2" t="n">
-        <v>12.0939</v>
+        <v>11.9917</v>
       </c>
     </row>
     <row r="6531">
       <c r="A6531" s="1" t="n">
-        <v>44979.0</v>
+        <v>44980.0</v>
       </c>
       <c r="B6531" s="2" t="n">
-        <v>11.9917</v>
+        <v>11.9775</v>
       </c>
     </row>
     <row r="6532">
       <c r="A6532" s="1" t="n">
-        <v>44980.0</v>
+        <v>44981.0</v>
       </c>
       <c r="B6532" s="2" t="n">
-        <v>11.9775</v>
+        <v>11.8666</v>
       </c>
     </row>
     <row r="6533">
       <c r="A6533" s="1" t="n">
-        <v>44981.0</v>
+        <v>44982.0</v>
       </c>
       <c r="B6533" s="2" t="n">
-        <v>11.8666</v>
+        <v>11.8707</v>
       </c>
     </row>
     <row r="6534">
       <c r="A6534" s="1" t="n">
-        <v>44982.0</v>
+        <v>44983.0</v>
       </c>
       <c r="B6534" s="2" t="n">
         <v>11.8707</v>
@@ -52356,47 +52356,47 @@
     </row>
     <row r="6535">
       <c r="A6535" s="1" t="n">
-        <v>44983.0</v>
+        <v>44984.0</v>
       </c>
       <c r="B6535" s="2" t="n">
-        <v>11.8707</v>
+        <v>11.8375</v>
       </c>
     </row>
     <row r="6536">
       <c r="A6536" s="1" t="n">
-        <v>44984.0</v>
+        <v>44985.0</v>
       </c>
       <c r="B6536" s="2" t="n">
-        <v>11.8375</v>
+        <v>11.9036</v>
       </c>
     </row>
     <row r="6537">
       <c r="A6537" s="1" t="n">
-        <v>44985.0</v>
+        <v>44986.0</v>
       </c>
       <c r="B6537" s="2" t="n">
-        <v>11.9036</v>
+        <v>12.077</v>
       </c>
     </row>
     <row r="6538">
       <c r="A6538" s="1" t="n">
-        <v>44986.0</v>
+        <v>44987.0</v>
       </c>
       <c r="B6538" s="2" t="n">
-        <v>12.077</v>
+        <v>12.0735</v>
       </c>
     </row>
     <row r="6539">
       <c r="A6539" s="1" t="n">
-        <v>44987.0</v>
+        <v>44988.0</v>
       </c>
       <c r="B6539" s="2" t="n">
-        <v>12.0735</v>
+        <v>12.1577</v>
       </c>
     </row>
     <row r="6540">
       <c r="A6540" s="1" t="n">
-        <v>44988.0</v>
+        <v>44989.0</v>
       </c>
       <c r="B6540" s="2" t="n">
         <v>12.1577</v>
@@ -52404,7 +52404,7 @@
     </row>
     <row r="6541">
       <c r="A6541" s="1" t="n">
-        <v>44989.0</v>
+        <v>44990.0</v>
       </c>
       <c r="B6541" s="2" t="n">
         <v>12.1577</v>
@@ -52412,55 +52412,55 @@
     </row>
     <row r="6542">
       <c r="A6542" s="1" t="n">
-        <v>44990.0</v>
+        <v>44991.0</v>
       </c>
       <c r="B6542" s="2" t="n">
-        <v>12.1577</v>
+        <v>12.1097</v>
       </c>
     </row>
     <row r="6543">
       <c r="A6543" s="1" t="n">
-        <v>44991.0</v>
+        <v>44992.0</v>
       </c>
       <c r="B6543" s="2" t="n">
-        <v>12.1097</v>
+        <v>11.9826</v>
       </c>
     </row>
     <row r="6544">
       <c r="A6544" s="1" t="n">
-        <v>44992.0</v>
+        <v>44993.0</v>
       </c>
       <c r="B6544" s="2" t="n">
-        <v>11.9826</v>
+        <v>11.9558</v>
       </c>
     </row>
     <row r="6545">
       <c r="A6545" s="1" t="n">
-        <v>44993.0</v>
+        <v>44994.0</v>
       </c>
       <c r="B6545" s="2" t="n">
-        <v>11.9558</v>
+        <v>11.9317</v>
       </c>
     </row>
     <row r="6546">
       <c r="A6546" s="1" t="n">
-        <v>44994.0</v>
+        <v>44995.0</v>
       </c>
       <c r="B6546" s="2" t="n">
-        <v>11.9317</v>
+        <v>11.7507</v>
       </c>
     </row>
     <row r="6547">
       <c r="A6547" s="1" t="n">
-        <v>44995.0</v>
+        <v>44996.0</v>
       </c>
       <c r="B6547" s="2" t="n">
-        <v>11.7507</v>
+        <v>11.7499</v>
       </c>
     </row>
     <row r="6548">
       <c r="A6548" s="1" t="n">
-        <v>44996.0</v>
+        <v>44997.0</v>
       </c>
       <c r="B6548" s="2" t="n">
         <v>11.7499</v>
@@ -52468,55 +52468,55 @@
     </row>
     <row r="6549">
       <c r="A6549" s="1" t="n">
-        <v>44997.0</v>
+        <v>44998.0</v>
       </c>
       <c r="B6549" s="2" t="n">
-        <v>11.7499</v>
+        <v>11.929</v>
       </c>
     </row>
     <row r="6550">
       <c r="A6550" s="1" t="n">
-        <v>44998.0</v>
+        <v>44999.0</v>
       </c>
       <c r="B6550" s="2" t="n">
-        <v>11.929</v>
+        <v>11.857</v>
       </c>
     </row>
     <row r="6551">
       <c r="A6551" s="1" t="n">
-        <v>44999.0</v>
+        <v>45000.0</v>
       </c>
       <c r="B6551" s="2" t="n">
-        <v>11.857</v>
+        <v>11.8981</v>
       </c>
     </row>
     <row r="6552">
       <c r="A6552" s="1" t="n">
-        <v>45000.0</v>
+        <v>45001.0</v>
       </c>
       <c r="B6552" s="2" t="n">
-        <v>11.8981</v>
+        <v>11.8305</v>
       </c>
     </row>
     <row r="6553">
       <c r="A6553" s="1" t="n">
-        <v>45001.0</v>
+        <v>45002.0</v>
       </c>
       <c r="B6553" s="2" t="n">
-        <v>11.8305</v>
+        <v>11.9138</v>
       </c>
     </row>
     <row r="6554">
       <c r="A6554" s="1" t="n">
-        <v>45002.0</v>
+        <v>45003.0</v>
       </c>
       <c r="B6554" s="2" t="n">
-        <v>11.9138</v>
+        <v>11.9217</v>
       </c>
     </row>
     <row r="6555">
       <c r="A6555" s="1" t="n">
-        <v>45003.0</v>
+        <v>45004.0</v>
       </c>
       <c r="B6555" s="2" t="n">
         <v>11.9217</v>
@@ -52524,55 +52524,55 @@
     </row>
     <row r="6556">
       <c r="A6556" s="1" t="n">
-        <v>45004.0</v>
+        <v>45005.0</v>
       </c>
       <c r="B6556" s="2" t="n">
-        <v>11.9217</v>
+        <v>11.8185</v>
       </c>
     </row>
     <row r="6557">
       <c r="A6557" s="1" t="n">
-        <v>45005.0</v>
+        <v>45006.0</v>
       </c>
       <c r="B6557" s="2" t="n">
-        <v>11.8185</v>
+        <v>11.8965</v>
       </c>
     </row>
     <row r="6558">
       <c r="A6558" s="1" t="n">
-        <v>45006.0</v>
+        <v>45007.0</v>
       </c>
       <c r="B6558" s="2" t="n">
-        <v>11.8965</v>
+        <v>11.9395</v>
       </c>
     </row>
     <row r="6559">
       <c r="A6559" s="1" t="n">
-        <v>45007.0</v>
+        <v>45008.0</v>
       </c>
       <c r="B6559" s="2" t="n">
-        <v>11.9395</v>
+        <v>12.0533</v>
       </c>
     </row>
     <row r="6560">
       <c r="A6560" s="1" t="n">
-        <v>45008.0</v>
+        <v>45009.0</v>
       </c>
       <c r="B6560" s="2" t="n">
-        <v>12.0533</v>
+        <v>11.9779</v>
       </c>
     </row>
     <row r="6561">
       <c r="A6561" s="1" t="n">
-        <v>45009.0</v>
+        <v>45010.0</v>
       </c>
       <c r="B6561" s="2" t="n">
-        <v>11.9779</v>
+        <v>11.9759</v>
       </c>
     </row>
     <row r="6562">
       <c r="A6562" s="1" t="n">
-        <v>45010.0</v>
+        <v>45011.0</v>
       </c>
       <c r="B6562" s="2" t="n">
         <v>11.9759</v>
@@ -52580,55 +52580,55 @@
     </row>
     <row r="6563">
       <c r="A6563" s="1" t="n">
-        <v>45011.0</v>
+        <v>45012.0</v>
       </c>
       <c r="B6563" s="2" t="n">
-        <v>11.9759</v>
+        <v>11.9057</v>
       </c>
     </row>
     <row r="6564">
       <c r="A6564" s="1" t="n">
-        <v>45012.0</v>
+        <v>45013.0</v>
       </c>
       <c r="B6564" s="2" t="n">
-        <v>11.9057</v>
+        <v>11.9157</v>
       </c>
     </row>
     <row r="6565">
       <c r="A6565" s="1" t="n">
-        <v>45013.0</v>
+        <v>45014.0</v>
       </c>
       <c r="B6565" s="2" t="n">
-        <v>11.9157</v>
+        <v>11.9327</v>
       </c>
     </row>
     <row r="6566">
       <c r="A6566" s="1" t="n">
-        <v>45014.0</v>
+        <v>45015.0</v>
       </c>
       <c r="B6566" s="2" t="n">
-        <v>11.9327</v>
+        <v>11.9908</v>
       </c>
     </row>
     <row r="6567">
       <c r="A6567" s="1" t="n">
-        <v>45015.0</v>
+        <v>45016.0</v>
       </c>
       <c r="B6567" s="2" t="n">
-        <v>11.9908</v>
+        <v>12.0614</v>
       </c>
     </row>
     <row r="6568">
       <c r="A6568" s="1" t="n">
-        <v>45016.0</v>
+        <v>45017.0</v>
       </c>
       <c r="B6568" s="2" t="n">
-        <v>12.0614</v>
+        <v>12.0851</v>
       </c>
     </row>
     <row r="6569">
       <c r="A6569" s="1" t="n">
-        <v>45017.0</v>
+        <v>45018.0</v>
       </c>
       <c r="B6569" s="2" t="n">
         <v>12.0851</v>
@@ -52636,55 +52636,55 @@
     </row>
     <row r="6570">
       <c r="A6570" s="1" t="n">
-        <v>45018.0</v>
+        <v>45019.0</v>
       </c>
       <c r="B6570" s="2" t="n">
-        <v>12.0851</v>
+        <v>12.1846</v>
       </c>
     </row>
     <row r="6571">
       <c r="A6571" s="1" t="n">
-        <v>45019.0</v>
+        <v>45020.0</v>
       </c>
       <c r="B6571" s="2" t="n">
-        <v>12.1846</v>
+        <v>12.2979</v>
       </c>
     </row>
     <row r="6572">
       <c r="A6572" s="1" t="n">
-        <v>45020.0</v>
+        <v>45021.0</v>
       </c>
       <c r="B6572" s="2" t="n">
-        <v>12.2979</v>
+        <v>12.2972</v>
       </c>
     </row>
     <row r="6573">
       <c r="A6573" s="1" t="n">
-        <v>45021.0</v>
+        <v>45022.0</v>
       </c>
       <c r="B6573" s="2" t="n">
-        <v>12.2972</v>
+        <v>12.2805</v>
       </c>
     </row>
     <row r="6574">
       <c r="A6574" s="1" t="n">
-        <v>45022.0</v>
+        <v>45023.0</v>
       </c>
       <c r="B6574" s="2" t="n">
-        <v>12.2805</v>
+        <v>12.3289</v>
       </c>
     </row>
     <row r="6575">
       <c r="A6575" s="1" t="n">
-        <v>45023.0</v>
+        <v>45024.0</v>
       </c>
       <c r="B6575" s="2" t="n">
-        <v>12.3289</v>
+        <v>12.3309</v>
       </c>
     </row>
     <row r="6576">
       <c r="A6576" s="1" t="n">
-        <v>45024.0</v>
+        <v>45025.0</v>
       </c>
       <c r="B6576" s="2" t="n">
         <v>12.3309</v>
@@ -52692,55 +52692,55 @@
     </row>
     <row r="6577">
       <c r="A6577" s="1" t="n">
-        <v>45025.0</v>
+        <v>45026.0</v>
       </c>
       <c r="B6577" s="2" t="n">
-        <v>12.3309</v>
+        <v>12.3063</v>
       </c>
     </row>
     <row r="6578">
       <c r="A6578" s="1" t="n">
-        <v>45026.0</v>
+        <v>45027.0</v>
       </c>
       <c r="B6578" s="2" t="n">
-        <v>12.3063</v>
+        <v>12.2746</v>
       </c>
     </row>
     <row r="6579">
       <c r="A6579" s="1" t="n">
-        <v>45027.0</v>
+        <v>45028.0</v>
       </c>
       <c r="B6579" s="2" t="n">
-        <v>12.2746</v>
+        <v>12.3224</v>
       </c>
     </row>
     <row r="6580">
       <c r="A6580" s="1" t="n">
-        <v>45028.0</v>
+        <v>45029.0</v>
       </c>
       <c r="B6580" s="2" t="n">
-        <v>12.3224</v>
+        <v>12.2607</v>
       </c>
     </row>
     <row r="6581">
       <c r="A6581" s="1" t="n">
-        <v>45029.0</v>
+        <v>45030.0</v>
       </c>
       <c r="B6581" s="2" t="n">
-        <v>12.2607</v>
+        <v>12.3418</v>
       </c>
     </row>
     <row r="6582">
       <c r="A6582" s="1" t="n">
-        <v>45030.0</v>
+        <v>45031.0</v>
       </c>
       <c r="B6582" s="2" t="n">
-        <v>12.3418</v>
+        <v>12.333</v>
       </c>
     </row>
     <row r="6583">
       <c r="A6583" s="1" t="n">
-        <v>45031.0</v>
+        <v>45032.0</v>
       </c>
       <c r="B6583" s="2" t="n">
         <v>12.333</v>
@@ -52748,55 +52748,55 @@
     </row>
     <row r="6584">
       <c r="A6584" s="1" t="n">
-        <v>45032.0</v>
+        <v>45033.0</v>
       </c>
       <c r="B6584" s="2" t="n">
-        <v>12.333</v>
+        <v>12.5633</v>
       </c>
     </row>
     <row r="6585">
       <c r="A6585" s="1" t="n">
-        <v>45033.0</v>
+        <v>45034.0</v>
       </c>
       <c r="B6585" s="2" t="n">
-        <v>12.5633</v>
+        <v>12.6796</v>
       </c>
     </row>
     <row r="6586">
       <c r="A6586" s="1" t="n">
-        <v>45034.0</v>
+        <v>45035.0</v>
       </c>
       <c r="B6586" s="2" t="n">
-        <v>12.6796</v>
+        <v>12.5663</v>
       </c>
     </row>
     <row r="6587">
       <c r="A6587" s="1" t="n">
-        <v>45035.0</v>
+        <v>45036.0</v>
       </c>
       <c r="B6587" s="2" t="n">
-        <v>12.5663</v>
+        <v>12.5671</v>
       </c>
     </row>
     <row r="6588">
       <c r="A6588" s="1" t="n">
-        <v>45036.0</v>
+        <v>45037.0</v>
       </c>
       <c r="B6588" s="2" t="n">
-        <v>12.5671</v>
+        <v>12.3301</v>
       </c>
     </row>
     <row r="6589">
       <c r="A6589" s="1" t="n">
-        <v>45037.0</v>
+        <v>45038.0</v>
       </c>
       <c r="B6589" s="2" t="n">
-        <v>12.3301</v>
+        <v>12.3383</v>
       </c>
     </row>
     <row r="6590">
       <c r="A6590" s="1" t="n">
-        <v>45038.0</v>
+        <v>45039.0</v>
       </c>
       <c r="B6590" s="2" t="n">
         <v>12.3383</v>
@@ -52804,55 +52804,55 @@
     </row>
     <row r="6591">
       <c r="A6591" s="1" t="n">
-        <v>45039.0</v>
+        <v>45040.0</v>
       </c>
       <c r="B6591" s="2" t="n">
-        <v>12.3383</v>
+        <v>12.2417</v>
       </c>
     </row>
     <row r="6592">
       <c r="A6592" s="1" t="n">
-        <v>45040.0</v>
+        <v>45041.0</v>
       </c>
       <c r="B6592" s="2" t="n">
-        <v>12.2417</v>
+        <v>12.2025</v>
       </c>
     </row>
     <row r="6593">
       <c r="A6593" s="1" t="n">
-        <v>45041.0</v>
+        <v>45042.0</v>
       </c>
       <c r="B6593" s="2" t="n">
-        <v>12.2025</v>
+        <v>12.1236</v>
       </c>
     </row>
     <row r="6594">
       <c r="A6594" s="1" t="n">
-        <v>45042.0</v>
+        <v>45043.0</v>
       </c>
       <c r="B6594" s="2" t="n">
-        <v>12.1236</v>
+        <v>12.1631</v>
       </c>
     </row>
     <row r="6595">
       <c r="A6595" s="1" t="n">
-        <v>45043.0</v>
+        <v>45044.0</v>
       </c>
       <c r="B6595" s="2" t="n">
-        <v>12.1631</v>
+        <v>12.2121</v>
       </c>
     </row>
     <row r="6596">
       <c r="A6596" s="1" t="n">
-        <v>45044.0</v>
+        <v>45045.0</v>
       </c>
       <c r="B6596" s="2" t="n">
-        <v>12.2121</v>
+        <v>12.2626</v>
       </c>
     </row>
     <row r="6597">
       <c r="A6597" s="1" t="n">
-        <v>45045.0</v>
+        <v>45046.0</v>
       </c>
       <c r="B6597" s="2" t="n">
         <v>12.2626</v>
@@ -52860,7 +52860,7 @@
     </row>
     <row r="6598">
       <c r="A6598" s="1" t="n">
-        <v>45046.0</v>
+        <v>45047.0</v>
       </c>
       <c r="B6598" s="2" t="n">
         <v>12.2626</v>
@@ -52868,15 +52868,15 @@
     </row>
     <row r="6599">
       <c r="A6599" s="1" t="n">
-        <v>45047.0</v>
+        <v>45048.0</v>
       </c>
       <c r="B6599" s="2" t="n">
-        <v>12.2626</v>
+        <v>12.2629</v>
       </c>
     </row>
     <row r="6600">
       <c r="A6600" s="1" t="n">
-        <v>45048.0</v>
+        <v>45049.0</v>
       </c>
       <c r="B6600" s="2" t="n">
         <v>12.2629</v>
@@ -52884,31 +52884,31 @@
     </row>
     <row r="6601">
       <c r="A6601" s="1" t="n">
-        <v>45049.0</v>
+        <v>45050.0</v>
       </c>
       <c r="B6601" s="2" t="n">
-        <v>12.2629</v>
+        <v>12.3664</v>
       </c>
     </row>
     <row r="6602">
       <c r="A6602" s="1" t="n">
-        <v>45050.0</v>
+        <v>45051.0</v>
       </c>
       <c r="B6602" s="2" t="n">
-        <v>12.3664</v>
+        <v>12.3367</v>
       </c>
     </row>
     <row r="6603">
       <c r="A6603" s="1" t="n">
-        <v>45051.0</v>
+        <v>45052.0</v>
       </c>
       <c r="B6603" s="2" t="n">
-        <v>12.3367</v>
+        <v>12.3369</v>
       </c>
     </row>
     <row r="6604">
       <c r="A6604" s="1" t="n">
-        <v>45052.0</v>
+        <v>45053.0</v>
       </c>
       <c r="B6604" s="2" t="n">
         <v>12.3369</v>
@@ -52916,47 +52916,47 @@
     </row>
     <row r="6605">
       <c r="A6605" s="1" t="n">
-        <v>45053.0</v>
+        <v>45054.0</v>
       </c>
       <c r="B6605" s="2" t="n">
-        <v>12.3369</v>
+        <v>12.6148</v>
       </c>
     </row>
     <row r="6606">
       <c r="A6606" s="1" t="n">
-        <v>45054.0</v>
+        <v>45055.0</v>
       </c>
       <c r="B6606" s="2" t="n">
-        <v>12.6148</v>
+        <v>12.4761</v>
       </c>
     </row>
     <row r="6607">
       <c r="A6607" s="1" t="n">
-        <v>45055.0</v>
+        <v>45056.0</v>
       </c>
       <c r="B6607" s="2" t="n">
-        <v>12.4761</v>
+        <v>12.2948</v>
       </c>
     </row>
     <row r="6608">
       <c r="A6608" s="1" t="n">
-        <v>45056.0</v>
+        <v>45057.0</v>
       </c>
       <c r="B6608" s="2" t="n">
-        <v>12.2948</v>
+        <v>12.2399</v>
       </c>
     </row>
     <row r="6609">
       <c r="A6609" s="1" t="n">
-        <v>45057.0</v>
+        <v>45058.0</v>
       </c>
       <c r="B6609" s="2" t="n">
-        <v>12.2399</v>
+        <v>12.0865</v>
       </c>
     </row>
     <row r="6610">
       <c r="A6610" s="1" t="n">
-        <v>45058.0</v>
+        <v>45059.0</v>
       </c>
       <c r="B6610" s="2" t="n">
         <v>12.0865</v>
@@ -52964,7 +52964,7 @@
     </row>
     <row r="6611">
       <c r="A6611" s="1" t="n">
-        <v>45059.0</v>
+        <v>45060.0</v>
       </c>
       <c r="B6611" s="2" t="n">
         <v>12.0865</v>
@@ -52972,47 +52972,47 @@
     </row>
     <row r="6612">
       <c r="A6612" s="1" t="n">
-        <v>45060.0</v>
+        <v>45061.0</v>
       </c>
       <c r="B6612" s="2" t="n">
-        <v>12.0865</v>
+        <v>12.2625</v>
       </c>
     </row>
     <row r="6613">
       <c r="A6613" s="1" t="n">
-        <v>45061.0</v>
+        <v>45062.0</v>
       </c>
       <c r="B6613" s="2" t="n">
-        <v>12.2625</v>
+        <v>12.1882</v>
       </c>
     </row>
     <row r="6614">
       <c r="A6614" s="1" t="n">
-        <v>45062.0</v>
+        <v>45063.0</v>
       </c>
       <c r="B6614" s="2" t="n">
-        <v>12.1882</v>
+        <v>12.1066</v>
       </c>
     </row>
     <row r="6615">
       <c r="A6615" s="1" t="n">
-        <v>45063.0</v>
+        <v>45064.0</v>
       </c>
       <c r="B6615" s="2" t="n">
-        <v>12.1066</v>
+        <v>12.16</v>
       </c>
     </row>
     <row r="6616">
       <c r="A6616" s="1" t="n">
-        <v>45064.0</v>
+        <v>45065.0</v>
       </c>
       <c r="B6616" s="2" t="n">
-        <v>12.16</v>
+        <v>12.1037</v>
       </c>
     </row>
     <row r="6617">
       <c r="A6617" s="1" t="n">
-        <v>45065.0</v>
+        <v>45066.0</v>
       </c>
       <c r="B6617" s="2" t="n">
         <v>12.1037</v>
@@ -53020,7 +53020,7 @@
     </row>
     <row r="6618">
       <c r="A6618" s="1" t="n">
-        <v>45066.0</v>
+        <v>45067.0</v>
       </c>
       <c r="B6618" s="2" t="n">
         <v>12.1037</v>
@@ -53028,47 +53028,47 @@
     </row>
     <row r="6619">
       <c r="A6619" s="1" t="n">
-        <v>45067.0</v>
+        <v>45068.0</v>
       </c>
       <c r="B6619" s="2" t="n">
-        <v>12.1037</v>
+        <v>12.1703</v>
       </c>
     </row>
     <row r="6620">
       <c r="A6620" s="1" t="n">
-        <v>45068.0</v>
+        <v>45069.0</v>
       </c>
       <c r="B6620" s="2" t="n">
-        <v>12.1703</v>
+        <v>11.9563</v>
       </c>
     </row>
     <row r="6621">
       <c r="A6621" s="1" t="n">
-        <v>45069.0</v>
+        <v>45070.0</v>
       </c>
       <c r="B6621" s="2" t="n">
-        <v>11.9563</v>
+        <v>11.7516</v>
       </c>
     </row>
     <row r="6622">
       <c r="A6622" s="1" t="n">
-        <v>45070.0</v>
+        <v>45071.0</v>
       </c>
       <c r="B6622" s="2" t="n">
-        <v>11.7516</v>
+        <v>11.731</v>
       </c>
     </row>
     <row r="6623">
       <c r="A6623" s="1" t="n">
-        <v>45071.0</v>
+        <v>45072.0</v>
       </c>
       <c r="B6623" s="2" t="n">
-        <v>11.731</v>
+        <v>11.7559</v>
       </c>
     </row>
     <row r="6624">
       <c r="A6624" s="1" t="n">
-        <v>45072.0</v>
+        <v>45073.0</v>
       </c>
       <c r="B6624" s="2" t="n">
         <v>11.7559</v>
@@ -53076,7 +53076,7 @@
     </row>
     <row r="6625">
       <c r="A6625" s="1" t="n">
-        <v>45073.0</v>
+        <v>45074.0</v>
       </c>
       <c r="B6625" s="2" t="n">
         <v>11.7559</v>
@@ -53084,47 +53084,47 @@
     </row>
     <row r="6626">
       <c r="A6626" s="1" t="n">
-        <v>45074.0</v>
+        <v>45075.0</v>
       </c>
       <c r="B6626" s="2" t="n">
-        <v>11.7559</v>
+        <v>11.7807</v>
       </c>
     </row>
     <row r="6627">
       <c r="A6627" s="1" t="n">
-        <v>45075.0</v>
+        <v>45076.0</v>
       </c>
       <c r="B6627" s="2" t="n">
-        <v>11.7807</v>
+        <v>11.795</v>
       </c>
     </row>
     <row r="6628">
       <c r="A6628" s="1" t="n">
-        <v>45076.0</v>
+        <v>45077.0</v>
       </c>
       <c r="B6628" s="2" t="n">
-        <v>11.795</v>
+        <v>11.6898</v>
       </c>
     </row>
     <row r="6629">
       <c r="A6629" s="1" t="n">
-        <v>45077.0</v>
+        <v>45078.0</v>
       </c>
       <c r="B6629" s="2" t="n">
-        <v>11.6898</v>
+        <v>11.7242</v>
       </c>
     </row>
     <row r="6630">
       <c r="A6630" s="1" t="n">
-        <v>45078.0</v>
+        <v>45079.0</v>
       </c>
       <c r="B6630" s="2" t="n">
-        <v>11.7242</v>
+        <v>11.8477</v>
       </c>
     </row>
     <row r="6631">
       <c r="A6631" s="1" t="n">
-        <v>45079.0</v>
+        <v>45080.0</v>
       </c>
       <c r="B6631" s="2" t="n">
         <v>11.8477</v>
@@ -53132,7 +53132,7 @@
     </row>
     <row r="6632">
       <c r="A6632" s="1" t="n">
-        <v>45080.0</v>
+        <v>45081.0</v>
       </c>
       <c r="B6632" s="2" t="n">
         <v>11.8477</v>
@@ -53140,47 +53140,47 @@
     </row>
     <row r="6633">
       <c r="A6633" s="1" t="n">
-        <v>45081.0</v>
+        <v>45082.0</v>
       </c>
       <c r="B6633" s="2" t="n">
-        <v>11.8477</v>
+        <v>11.8353</v>
       </c>
     </row>
     <row r="6634">
       <c r="A6634" s="1" t="n">
-        <v>45082.0</v>
+        <v>45083.0</v>
       </c>
       <c r="B6634" s="2" t="n">
-        <v>11.8353</v>
+        <v>11.7536</v>
       </c>
     </row>
     <row r="6635">
       <c r="A6635" s="1" t="n">
-        <v>45083.0</v>
+        <v>45084.0</v>
       </c>
       <c r="B6635" s="2" t="n">
-        <v>11.7536</v>
+        <v>11.7148</v>
       </c>
     </row>
     <row r="6636">
       <c r="A6636" s="1" t="n">
-        <v>45084.0</v>
+        <v>45085.0</v>
       </c>
       <c r="B6636" s="2" t="n">
-        <v>11.7148</v>
+        <v>11.835</v>
       </c>
     </row>
     <row r="6637">
       <c r="A6637" s="1" t="n">
-        <v>45085.0</v>
+        <v>45086.0</v>
       </c>
       <c r="B6637" s="2" t="n">
-        <v>11.835</v>
+        <v>11.9046</v>
       </c>
     </row>
     <row r="6638">
       <c r="A6638" s="1" t="n">
-        <v>45086.0</v>
+        <v>45087.0</v>
       </c>
       <c r="B6638" s="2" t="n">
         <v>11.9046</v>
@@ -53188,7 +53188,7 @@
     </row>
     <row r="6639">
       <c r="A6639" s="1" t="n">
-        <v>45087.0</v>
+        <v>45088.0</v>
       </c>
       <c r="B6639" s="2" t="n">
         <v>11.9046</v>
@@ -53196,47 +53196,47 @@
     </row>
     <row r="6640">
       <c r="A6640" s="1" t="n">
-        <v>45088.0</v>
+        <v>45089.0</v>
       </c>
       <c r="B6640" s="2" t="n">
-        <v>11.9046</v>
+        <v>11.8151</v>
       </c>
     </row>
     <row r="6641">
       <c r="A6641" s="1" t="n">
-        <v>45089.0</v>
+        <v>45090.0</v>
       </c>
       <c r="B6641" s="2" t="n">
-        <v>11.8151</v>
+        <v>11.844</v>
       </c>
     </row>
     <row r="6642">
       <c r="A6642" s="1" t="n">
-        <v>45090.0</v>
+        <v>45091.0</v>
       </c>
       <c r="B6642" s="2" t="n">
-        <v>11.844</v>
+        <v>11.8056</v>
       </c>
     </row>
     <row r="6643">
       <c r="A6643" s="1" t="n">
-        <v>45091.0</v>
+        <v>45092.0</v>
       </c>
       <c r="B6643" s="2" t="n">
-        <v>11.8056</v>
+        <v>11.945</v>
       </c>
     </row>
     <row r="6644">
       <c r="A6644" s="1" t="n">
-        <v>45092.0</v>
+        <v>45093.0</v>
       </c>
       <c r="B6644" s="2" t="n">
-        <v>11.945</v>
+        <v>12.0173</v>
       </c>
     </row>
     <row r="6645">
       <c r="A6645" s="1" t="n">
-        <v>45093.0</v>
+        <v>45094.0</v>
       </c>
       <c r="B6645" s="2" t="n">
         <v>12.0173</v>
@@ -53244,7 +53244,7 @@
     </row>
     <row r="6646">
       <c r="A6646" s="1" t="n">
-        <v>45094.0</v>
+        <v>45095.0</v>
       </c>
       <c r="B6646" s="2" t="n">
         <v>12.0173</v>
@@ -53252,31 +53252,31 @@
     </row>
     <row r="6647">
       <c r="A6647" s="1" t="n">
-        <v>45095.0</v>
+        <v>45096.0</v>
       </c>
       <c r="B6647" s="2" t="n">
-        <v>12.0173</v>
+        <v>11.9224</v>
       </c>
     </row>
     <row r="6648">
       <c r="A6648" s="1" t="n">
-        <v>45096.0</v>
+        <v>45097.0</v>
       </c>
       <c r="B6648" s="2" t="n">
-        <v>11.9224</v>
+        <v>11.8632</v>
       </c>
     </row>
     <row r="6649">
       <c r="A6649" s="1" t="n">
-        <v>45097.0</v>
+        <v>45098.0</v>
       </c>
       <c r="B6649" s="2" t="n">
-        <v>11.8632</v>
+        <v>11.7164</v>
       </c>
     </row>
     <row r="6650">
       <c r="A6650" s="1" t="n">
-        <v>45098.0</v>
+        <v>45099.0</v>
       </c>
       <c r="B6650" s="2" t="n">
         <v>11.7164</v>
@@ -53284,7 +53284,7 @@
     </row>
     <row r="6651">
       <c r="A6651" s="1" t="n">
-        <v>45099.0</v>
+        <v>45100.0</v>
       </c>
       <c r="B6651" s="2" t="n">
         <v>11.7164</v>
@@ -53292,7 +53292,7 @@
     </row>
     <row r="6652">
       <c r="A6652" s="1" t="n">
-        <v>45100.0</v>
+        <v>45101.0</v>
       </c>
       <c r="B6652" s="2" t="n">
         <v>11.7164</v>
@@ -53300,7 +53300,7 @@
     </row>
     <row r="6653">
       <c r="A6653" s="1" t="n">
-        <v>45101.0</v>
+        <v>45102.0</v>
       </c>
       <c r="B6653" s="2" t="n">
         <v>11.7164</v>
@@ -53308,47 +53308,47 @@
     </row>
     <row r="6654">
       <c r="A6654" s="1" t="n">
-        <v>45102.0</v>
+        <v>45103.0</v>
       </c>
       <c r="B6654" s="2" t="n">
-        <v>11.7164</v>
+        <v>11.5597</v>
       </c>
     </row>
     <row r="6655">
       <c r="A6655" s="1" t="n">
-        <v>45103.0</v>
+        <v>45104.0</v>
       </c>
       <c r="B6655" s="2" t="n">
-        <v>11.5597</v>
+        <v>11.6913</v>
       </c>
     </row>
     <row r="6656">
       <c r="A6656" s="1" t="n">
-        <v>45104.0</v>
+        <v>45105.0</v>
       </c>
       <c r="B6656" s="2" t="n">
-        <v>11.6913</v>
+        <v>11.6759</v>
       </c>
     </row>
     <row r="6657">
       <c r="A6657" s="1" t="n">
-        <v>45105.0</v>
+        <v>45106.0</v>
       </c>
       <c r="B6657" s="2" t="n">
-        <v>11.6759</v>
+        <v>11.6223</v>
       </c>
     </row>
     <row r="6658">
       <c r="A6658" s="1" t="n">
-        <v>45106.0</v>
+        <v>45107.0</v>
       </c>
       <c r="B6658" s="2" t="n">
-        <v>11.6223</v>
+        <v>11.6818</v>
       </c>
     </row>
     <row r="6659">
       <c r="A6659" s="1" t="n">
-        <v>45107.0</v>
+        <v>45108.0</v>
       </c>
       <c r="B6659" s="2" t="n">
         <v>11.6818</v>
@@ -53356,7 +53356,7 @@
     </row>
     <row r="6660">
       <c r="A6660" s="1" t="n">
-        <v>45108.0</v>
+        <v>45109.0</v>
       </c>
       <c r="B6660" s="2" t="n">
         <v>11.6818</v>
@@ -53364,46 +53364,150 @@
     </row>
     <row r="6661">
       <c r="A6661" s="1" t="n">
-        <v>45109.0</v>
+        <v>45110.0</v>
       </c>
       <c r="B6661" s="2" t="n">
-        <v>11.6818</v>
+        <v>11.8622</v>
       </c>
     </row>
     <row r="6662">
       <c r="A6662" s="1" t="n">
-        <v>45110.0</v>
+        <v>45111.0</v>
       </c>
       <c r="B6662" s="2" t="n">
-        <v>11.8622</v>
+        <v>11.8602</v>
       </c>
     </row>
     <row r="6663">
       <c r="A6663" s="1" t="n">
-        <v>45111.0</v>
+        <v>45112.0</v>
       </c>
       <c r="B6663" s="2" t="n">
-        <v>11.8602</v>
+        <v>11.7691</v>
       </c>
     </row>
     <row r="6664">
       <c r="A6664" s="1" t="n">
-        <v>45112.0</v>
+        <v>45113.0</v>
       </c>
       <c r="B6664" s="2" t="n">
-        <v>11.7691</v>
+        <v>11.693</v>
       </c>
     </row>
     <row r="6665">
       <c r="A6665" s="1" t="n">
-        <v>45113.0</v>
+        <v>45114.0</v>
       </c>
       <c r="B6665" s="2" t="n">
-        <v>11.693</v>
+        <v>11.6472</v>
+      </c>
+    </row>
+    <row r="6666">
+      <c r="A6666" s="1" t="n">
+        <v>45115.0</v>
+      </c>
+      <c r="B6666" s="2" t="n">
+        <v>11.6468</v>
       </c>
     </row>
     <row r="6667">
-      <c r="A6667" s="3" t="inlineStr">
+      <c r="A6667" s="1" t="n">
+        <v>45116.0</v>
+      </c>
+      <c r="B6667" s="2" t="n">
+        <v>11.6468</v>
+      </c>
+    </row>
+    <row r="6668">
+      <c r="A6668" s="1" t="n">
+        <v>45117.0</v>
+      </c>
+      <c r="B6668" s="2" t="n">
+        <v>11.6827</v>
+      </c>
+    </row>
+    <row r="6669">
+      <c r="A6669" s="1" t="n">
+        <v>45118.0</v>
+      </c>
+      <c r="B6669" s="2" t="n">
+        <v>11.7505</v>
+      </c>
+    </row>
+    <row r="6670">
+      <c r="A6670" s="1" t="n">
+        <v>45119.0</v>
+      </c>
+      <c r="B6670" s="2" t="n">
+        <v>11.6661</v>
+      </c>
+    </row>
+    <row r="6671">
+      <c r="A6671" s="1" t="n">
+        <v>45120.0</v>
+      </c>
+      <c r="B6671" s="2" t="n">
+        <v>11.8438</v>
+      </c>
+    </row>
+    <row r="6672">
+      <c r="A6672" s="1" t="n">
+        <v>45121.0</v>
+      </c>
+      <c r="B6672" s="2" t="n">
+        <v>11.8492</v>
+      </c>
+    </row>
+    <row r="6673">
+      <c r="A6673" s="1" t="n">
+        <v>45122.0</v>
+      </c>
+      <c r="B6673" s="2" t="n">
+        <v>11.8492</v>
+      </c>
+    </row>
+    <row r="6674">
+      <c r="A6674" s="1" t="n">
+        <v>45123.0</v>
+      </c>
+      <c r="B6674" s="2" t="n">
+        <v>11.8492</v>
+      </c>
+    </row>
+    <row r="6675">
+      <c r="A6675" s="1" t="n">
+        <v>45124.0</v>
+      </c>
+      <c r="B6675" s="2" t="n">
+        <v>11.715</v>
+      </c>
+    </row>
+    <row r="6676">
+      <c r="A6676" s="1" t="n">
+        <v>45125.0</v>
+      </c>
+      <c r="B6676" s="2" t="n">
+        <v>11.659</v>
+      </c>
+    </row>
+    <row r="6677">
+      <c r="A6677" s="1" t="n">
+        <v>45126.0</v>
+      </c>
+      <c r="B6677" s="2" t="n">
+        <v>11.6595</v>
+      </c>
+    </row>
+    <row r="6678">
+      <c r="A6678" s="1" t="n">
+        <v>45127.0</v>
+      </c>
+      <c r="B6678" s="2" t="n">
+        <v>11.5768</v>
+      </c>
+    </row>
+    <row r="6680">
+      <c r="A6680" s="3" t="inlineStr">
         <is>
           <t>数据来源：Wind</t>
         </is>

--- a/data_xlsx/滚动市盈率(TTM)_沪深300.xlsx
+++ b/data_xlsx/滚动市盈率(TTM)_沪深300.xlsx
@@ -53506,8 +53506,288 @@
         <v>11.5768</v>
       </c>
     </row>
+    <row r="6679">
+      <c r="A6679" s="1" t="n">
+        <v>45128.0</v>
+      </c>
+      <c r="B6679" s="2" t="n">
+        <v>11.5704</v>
+      </c>
+    </row>
     <row r="6680">
-      <c r="A6680" s="3" t="inlineStr">
+      <c r="A6680" s="1" t="n">
+        <v>45129.0</v>
+      </c>
+      <c r="B6680" s="2" t="n">
+        <v>11.5707</v>
+      </c>
+    </row>
+    <row r="6681">
+      <c r="A6681" s="1" t="n">
+        <v>45130.0</v>
+      </c>
+      <c r="B6681" s="2" t="n">
+        <v>11.5707</v>
+      </c>
+    </row>
+    <row r="6682">
+      <c r="A6682" s="1" t="n">
+        <v>45131.0</v>
+      </c>
+      <c r="B6682" s="2" t="n">
+        <v>11.538</v>
+      </c>
+    </row>
+    <row r="6683">
+      <c r="A6683" s="1" t="n">
+        <v>45132.0</v>
+      </c>
+      <c r="B6683" s="2" t="n">
+        <v>11.8395</v>
+      </c>
+    </row>
+    <row r="6684">
+      <c r="A6684" s="1" t="n">
+        <v>45133.0</v>
+      </c>
+      <c r="B6684" s="2" t="n">
+        <v>11.7732</v>
+      </c>
+    </row>
+    <row r="6685">
+      <c r="A6685" s="1" t="n">
+        <v>45134.0</v>
+      </c>
+      <c r="B6685" s="2" t="n">
+        <v>11.7817</v>
+      </c>
+    </row>
+    <row r="6686">
+      <c r="A6686" s="1" t="n">
+        <v>45135.0</v>
+      </c>
+      <c r="B6686" s="2" t="n">
+        <v>12.0466</v>
+      </c>
+    </row>
+    <row r="6687">
+      <c r="A6687" s="1" t="n">
+        <v>45136.0</v>
+      </c>
+      <c r="B6687" s="2" t="n">
+        <v>12.0539</v>
+      </c>
+    </row>
+    <row r="6688">
+      <c r="A6688" s="1" t="n">
+        <v>45137.0</v>
+      </c>
+      <c r="B6688" s="2" t="n">
+        <v>12.0539</v>
+      </c>
+    </row>
+    <row r="6689">
+      <c r="A6689" s="1" t="n">
+        <v>45138.0</v>
+      </c>
+      <c r="B6689" s="2" t="n">
+        <v>12.0958</v>
+      </c>
+    </row>
+    <row r="6690">
+      <c r="A6690" s="1" t="n">
+        <v>45139.0</v>
+      </c>
+      <c r="B6690" s="2" t="n">
+        <v>12.0734</v>
+      </c>
+    </row>
+    <row r="6691">
+      <c r="A6691" s="1" t="n">
+        <v>45140.0</v>
+      </c>
+      <c r="B6691" s="2" t="n">
+        <v>11.938</v>
+      </c>
+    </row>
+    <row r="6692">
+      <c r="A6692" s="1" t="n">
+        <v>45141.0</v>
+      </c>
+      <c r="B6692" s="2" t="n">
+        <v>12.0198</v>
+      </c>
+    </row>
+    <row r="6693">
+      <c r="A6693" s="1" t="n">
+        <v>45142.0</v>
+      </c>
+      <c r="B6693" s="2" t="n">
+        <v>12.0927</v>
+      </c>
+    </row>
+    <row r="6694">
+      <c r="A6694" s="1" t="n">
+        <v>45143.0</v>
+      </c>
+      <c r="B6694" s="2" t="n">
+        <v>12.0932</v>
+      </c>
+    </row>
+    <row r="6695">
+      <c r="A6695" s="1" t="n">
+        <v>45144.0</v>
+      </c>
+      <c r="B6695" s="2" t="n">
+        <v>12.0932</v>
+      </c>
+    </row>
+    <row r="6696">
+      <c r="A6696" s="1" t="n">
+        <v>45145.0</v>
+      </c>
+      <c r="B6696" s="2" t="n">
+        <v>12.009</v>
+      </c>
+    </row>
+    <row r="6697">
+      <c r="A6697" s="1" t="n">
+        <v>45146.0</v>
+      </c>
+      <c r="B6697" s="2" t="n">
+        <v>11.9883</v>
+      </c>
+    </row>
+    <row r="6698">
+      <c r="A6698" s="1" t="n">
+        <v>45147.0</v>
+      </c>
+      <c r="B6698" s="2" t="n">
+        <v>11.9485</v>
+      </c>
+    </row>
+    <row r="6699">
+      <c r="A6699" s="1" t="n">
+        <v>45148.0</v>
+      </c>
+      <c r="B6699" s="2" t="n">
+        <v>11.9889</v>
+      </c>
+    </row>
+    <row r="6700">
+      <c r="A6700" s="1" t="n">
+        <v>45149.0</v>
+      </c>
+      <c r="B6700" s="2" t="n">
+        <v>11.7325</v>
+      </c>
+    </row>
+    <row r="6701">
+      <c r="A6701" s="1" t="n">
+        <v>45150.0</v>
+      </c>
+      <c r="B6701" s="2" t="n">
+        <v>11.7376</v>
+      </c>
+    </row>
+    <row r="6702">
+      <c r="A6702" s="1" t="n">
+        <v>45151.0</v>
+      </c>
+      <c r="B6702" s="2" t="n">
+        <v>11.7376</v>
+      </c>
+    </row>
+    <row r="6703">
+      <c r="A6703" s="1" t="n">
+        <v>45152.0</v>
+      </c>
+      <c r="B6703" s="2" t="n">
+        <v>11.6561</v>
+      </c>
+    </row>
+    <row r="6704">
+      <c r="A6704" s="1" t="n">
+        <v>45153.0</v>
+      </c>
+      <c r="B6704" s="2" t="n">
+        <v>11.6709</v>
+      </c>
+    </row>
+    <row r="6705">
+      <c r="A6705" s="1" t="n">
+        <v>45154.0</v>
+      </c>
+      <c r="B6705" s="2" t="n">
+        <v>11.5757</v>
+      </c>
+    </row>
+    <row r="6706">
+      <c r="A6706" s="1" t="n">
+        <v>45155.0</v>
+      </c>
+      <c r="B6706" s="2" t="n">
+        <v>11.5934</v>
+      </c>
+    </row>
+    <row r="6707">
+      <c r="A6707" s="1" t="n">
+        <v>45156.0</v>
+      </c>
+      <c r="B6707" s="2" t="n">
+        <v>11.4913</v>
+      </c>
+    </row>
+    <row r="6708">
+      <c r="A6708" s="1" t="n">
+        <v>45157.0</v>
+      </c>
+      <c r="B6708" s="2" t="n">
+        <v>11.4932</v>
+      </c>
+    </row>
+    <row r="6709">
+      <c r="A6709" s="1" t="n">
+        <v>45158.0</v>
+      </c>
+      <c r="B6709" s="2" t="n">
+        <v>11.4932</v>
+      </c>
+    </row>
+    <row r="6710">
+      <c r="A6710" s="1" t="n">
+        <v>45159.0</v>
+      </c>
+      <c r="B6710" s="2" t="n">
+        <v>11.3512</v>
+      </c>
+    </row>
+    <row r="6711">
+      <c r="A6711" s="1" t="n">
+        <v>45160.0</v>
+      </c>
+      <c r="B6711" s="2" t="n">
+        <v>11.489</v>
+      </c>
+    </row>
+    <row r="6712">
+      <c r="A6712" s="1" t="n">
+        <v>45161.0</v>
+      </c>
+      <c r="B6712" s="2" t="n">
+        <v>11.351</v>
+      </c>
+    </row>
+    <row r="6713">
+      <c r="A6713" s="1" t="n">
+        <v>45162.0</v>
+      </c>
+      <c r="B6713" s="2" t="n">
+        <v>11.3929</v>
+      </c>
+    </row>
+    <row r="6715">
+      <c r="A6715" s="3" t="inlineStr">
         <is>
           <t>数据来源：Wind</t>
         </is>
